--- a/VIDA2/data/PORTO ALEGRE.xlsx
+++ b/VIDA2/data/PORTO ALEGRE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>attacked</t>
+          <t>females</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>denounce</t>
+          <t>Attacks per female</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>females</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Attacks per female</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Denounces per female</t>
         </is>
@@ -469,22 +459,18 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>4300604005001</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4300604005001</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>1.812</v>
+        <v>13.61</v>
       </c>
       <c r="D2" t="n">
-        <v>0.598</v>
+        <v>136.5490950222508</v>
       </c>
       <c r="E2" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="F2" t="n">
-        <v>136.5490950222508</v>
-      </c>
-      <c r="G2" t="n">
         <v>45.21146249392312</v>
       </c>
     </row>
@@ -492,22 +478,18 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>4300604005002</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4300604005002</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>1.194</v>
+        <v>9.236000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.43</v>
+        <v>135.3504259929956</v>
       </c>
       <c r="E3" t="n">
-        <v>9.236000000000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>135.3504259929956</v>
-      </c>
-      <c r="G3" t="n">
         <v>48.30215009448753</v>
       </c>
     </row>
@@ -515,22 +497,18 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>4300604005003</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4300604005003</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>1.27</v>
+        <v>10.414</v>
       </c>
       <c r="D4" t="n">
-        <v>0.468</v>
+        <v>129.2207058249627</v>
       </c>
       <c r="E4" t="n">
-        <v>10.414</v>
-      </c>
-      <c r="F4" t="n">
-        <v>129.2207058249627</v>
-      </c>
-      <c r="G4" t="n">
         <v>46.34298849585224</v>
       </c>
     </row>
@@ -538,22 +516,18 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>4300604005004</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4300604005004</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>1.79</v>
+        <v>15.01</v>
       </c>
       <c r="D5" t="n">
-        <v>0.672</v>
+        <v>123.3027157875287</v>
       </c>
       <c r="E5" t="n">
-        <v>15.01</v>
-      </c>
-      <c r="F5" t="n">
-        <v>123.3027157875287</v>
-      </c>
-      <c r="G5" t="n">
         <v>45.95982577527436</v>
       </c>
     </row>
@@ -561,22 +535,18 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>4300604005005</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4300604005005</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>0.948</v>
+        <v>8.51</v>
       </c>
       <c r="D6" t="n">
-        <v>0.358</v>
+        <v>120.1161893661893</v>
       </c>
       <c r="E6" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="F6" t="n">
-        <v>120.1161893661893</v>
-      </c>
-      <c r="G6" t="n">
         <v>45.09819069819068</v>
       </c>
     </row>
@@ -584,22 +554,18 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>4300604005006</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4300604005006</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>1.308</v>
+        <v>9.932</v>
       </c>
       <c r="D7" t="n">
-        <v>0.442</v>
+        <v>136.0803652372066</v>
       </c>
       <c r="E7" t="n">
-        <v>9.932</v>
-      </c>
-      <c r="F7" t="n">
-        <v>136.0803652372066</v>
-      </c>
-      <c r="G7" t="n">
         <v>46.22742861713447</v>
       </c>
     </row>
@@ -607,22 +573,18 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>4300604005007</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4300604005007</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>1.442</v>
+        <v>11.998</v>
       </c>
       <c r="D8" t="n">
-        <v>0.498</v>
+        <v>125.5234981990533</v>
       </c>
       <c r="E8" t="n">
-        <v>11.998</v>
-      </c>
-      <c r="F8" t="n">
-        <v>125.5234981990533</v>
-      </c>
-      <c r="G8" t="n">
         <v>43.78547033163066</v>
       </c>
     </row>
@@ -630,22 +592,18 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>4300604005008</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4300604005008</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>1.842</v>
+        <v>15.514</v>
       </c>
       <c r="D9" t="n">
-        <v>0.662</v>
+        <v>120.4716476425292</v>
       </c>
       <c r="E9" t="n">
-        <v>15.514</v>
-      </c>
-      <c r="F9" t="n">
-        <v>120.4716476425292</v>
-      </c>
-      <c r="G9" t="n">
         <v>43.80746086528894</v>
       </c>
     </row>
@@ -653,22 +611,18 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>4300604005009</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4300604005009</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>1.2</v>
+        <v>9.417999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.424</v>
+        <v>134.8100487747545</v>
       </c>
       <c r="E10" t="n">
-        <v>9.417999999999999</v>
-      </c>
-      <c r="F10" t="n">
-        <v>134.8100487747545</v>
-      </c>
-      <c r="G10" t="n">
         <v>45.20905532376122</v>
       </c>
     </row>
@@ -676,22 +630,18 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>4303103003001</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4303103003001</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>0.918</v>
+        <v>6.754</v>
       </c>
       <c r="D11" t="n">
-        <v>0.324</v>
+        <v>149.2340714840716</v>
       </c>
       <c r="E11" t="n">
-        <v>6.754</v>
-      </c>
-      <c r="F11" t="n">
-        <v>149.2340714840716</v>
-      </c>
-      <c r="G11" t="n">
         <v>53.05843045843044</v>
       </c>
     </row>
@@ -699,22 +649,18 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>4303103003002</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4303103003002</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>0.7254509018036072</v>
+        <v>6.623246492985972</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2645290581162324</v>
+        <v>123.2691462400881</v>
       </c>
       <c r="E12" t="n">
-        <v>6.623246492985972</v>
-      </c>
-      <c r="F12" t="n">
-        <v>123.2691462400881</v>
-      </c>
-      <c r="G12" t="n">
         <v>44.68128175543004</v>
       </c>
     </row>
@@ -722,22 +668,18 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>4303103003003</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4303103003003</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>1.754</v>
+        <v>13.576</v>
       </c>
       <c r="D13" t="n">
-        <v>0.584</v>
+        <v>131.2794388728484</v>
       </c>
       <c r="E13" t="n">
-        <v>13.576</v>
-      </c>
-      <c r="F13" t="n">
-        <v>131.2794388728484</v>
-      </c>
-      <c r="G13" t="n">
         <v>44.07985790192816</v>
       </c>
     </row>
@@ -745,22 +687,18 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>4303103003004</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4303103003004</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8333333333333334</v>
+        <v>7.150602409638554</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3072289156626506</v>
+        <v>122.7022921300029</v>
       </c>
       <c r="E14" t="n">
-        <v>7.150602409638554</v>
-      </c>
-      <c r="F14" t="n">
-        <v>122.7022921300029</v>
-      </c>
-      <c r="G14" t="n">
         <v>44.97370657009208</v>
       </c>
     </row>
@@ -768,22 +706,18 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>4303103003005</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4303103003005</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>1.194</v>
+        <v>9.718</v>
       </c>
       <c r="D15" t="n">
-        <v>0.414</v>
+        <v>126.3089681560269</v>
       </c>
       <c r="E15" t="n">
-        <v>9.718</v>
-      </c>
-      <c r="F15" t="n">
-        <v>126.3089681560269</v>
-      </c>
-      <c r="G15" t="n">
         <v>43.61567566420504</v>
       </c>
     </row>
@@ -791,22 +725,18 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>4303103003006</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4303103003006</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>2.506</v>
+        <v>19.184</v>
       </c>
       <c r="D16" t="n">
-        <v>0.874</v>
+        <v>133.3124164605712</v>
       </c>
       <c r="E16" t="n">
-        <v>19.184</v>
-      </c>
-      <c r="F16" t="n">
-        <v>133.3124164605712</v>
-      </c>
-      <c r="G16" t="n">
         <v>46.70607746812488</v>
       </c>
     </row>
@@ -814,22 +744,18 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>4304606005001</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4304606005001</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>1.374</v>
+        <v>11.296</v>
       </c>
       <c r="D17" t="n">
-        <v>0.506</v>
+        <v>126.9806564178855</v>
       </c>
       <c r="E17" t="n">
-        <v>11.296</v>
-      </c>
-      <c r="F17" t="n">
-        <v>126.9806564178855</v>
-      </c>
-      <c r="G17" t="n">
         <v>47.436649779529</v>
       </c>
     </row>
@@ -837,22 +763,18 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>4304606005002</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>4304606005002</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>1.506</v>
+        <v>11.842</v>
       </c>
       <c r="D18" t="n">
-        <v>0.542</v>
+        <v>135.8463698753945</v>
       </c>
       <c r="E18" t="n">
-        <v>11.842</v>
-      </c>
-      <c r="F18" t="n">
-        <v>135.8463698753945</v>
-      </c>
-      <c r="G18" t="n">
         <v>48.09768057879512</v>
       </c>
     </row>
@@ -860,22 +782,18 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>4304606005003</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4304606005003</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>0.93</v>
+        <v>8.4</v>
       </c>
       <c r="D19" t="n">
-        <v>0.326</v>
+        <v>119.1555230287428</v>
       </c>
       <c r="E19" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>119.1555230287428</v>
-      </c>
-      <c r="G19" t="n">
         <v>40.33416354886939</v>
       </c>
     </row>
@@ -883,22 +801,18 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>4304606005004</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>4304606005004</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>0.802</v>
+        <v>6.424</v>
       </c>
       <c r="D20" t="n">
-        <v>0.304</v>
+        <v>138.1836163836163</v>
       </c>
       <c r="E20" t="n">
-        <v>6.424</v>
-      </c>
-      <c r="F20" t="n">
-        <v>138.1836163836163</v>
-      </c>
-      <c r="G20" t="n">
         <v>52.04535464535461</v>
       </c>
     </row>
@@ -906,22 +820,18 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>4304606005005</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>4304606005005</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>1.384</v>
+        <v>11.206</v>
       </c>
       <c r="D21" t="n">
-        <v>0.51</v>
+        <v>125.8758727766602</v>
       </c>
       <c r="E21" t="n">
-        <v>11.206</v>
-      </c>
-      <c r="F21" t="n">
-        <v>125.8758727766602</v>
-      </c>
-      <c r="G21" t="n">
         <v>47.06265557889261</v>
       </c>
     </row>
@@ -929,22 +839,18 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>4304606005006</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4304606005006</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>0.976</v>
+        <v>8.116</v>
       </c>
       <c r="D22" t="n">
-        <v>0.322</v>
+        <v>124.1760733934108</v>
       </c>
       <c r="E22" t="n">
-        <v>8.116</v>
-      </c>
-      <c r="F22" t="n">
-        <v>124.1760733934108</v>
-      </c>
-      <c r="G22" t="n">
         <v>41.81702904938197</v>
       </c>
     </row>
@@ -952,22 +858,18 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>4304606005007</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4304606005007</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>1.094</v>
+        <v>9.01</v>
       </c>
       <c r="D23" t="n">
-        <v>0.43</v>
+        <v>126.2506681227269</v>
       </c>
       <c r="E23" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="F23" t="n">
-        <v>126.2506681227269</v>
-      </c>
-      <c r="G23" t="n">
         <v>49.44476161093806</v>
       </c>
     </row>
@@ -975,22 +877,18 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>4304606005008</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>4304606005008</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>1.498</v>
+        <v>12.512</v>
       </c>
       <c r="D24" t="n">
-        <v>0.584</v>
+        <v>122.3528603852288</v>
       </c>
       <c r="E24" t="n">
-        <v>12.512</v>
-      </c>
-      <c r="F24" t="n">
-        <v>122.3528603852288</v>
-      </c>
-      <c r="G24" t="n">
         <v>47.678218310757</v>
       </c>
     </row>
@@ -998,22 +896,18 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>4304606005009</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4304606005009</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>1.024</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.37</v>
+        <v>134.7507592081121</v>
       </c>
       <c r="E25" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="F25" t="n">
-        <v>134.7507592081121</v>
-      </c>
-      <c r="G25" t="n">
         <v>48.81065960183602</v>
       </c>
     </row>
@@ -1021,22 +915,18 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>4304606005010</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4304606005010</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>0.972</v>
+        <v>7.786</v>
       </c>
       <c r="D26" t="n">
-        <v>0.338</v>
+        <v>131.8549950049949</v>
       </c>
       <c r="E26" t="n">
-        <v>7.786</v>
-      </c>
-      <c r="F26" t="n">
-        <v>131.8549950049949</v>
-      </c>
-      <c r="G26" t="n">
         <v>44.7768509268509</v>
       </c>
     </row>
@@ -1044,22 +934,18 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>4304606005011</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4304606005011</t>
+        </is>
       </c>
       <c r="C27" t="n">
-        <v>0.894</v>
+        <v>7.446</v>
       </c>
       <c r="D27" t="n">
-        <v>0.324</v>
+        <v>122.5119880119879</v>
       </c>
       <c r="E27" t="n">
-        <v>7.446</v>
-      </c>
-      <c r="F27" t="n">
-        <v>122.5119880119879</v>
-      </c>
-      <c r="G27" t="n">
         <v>45.85841380841379</v>
       </c>
     </row>
@@ -1067,22 +953,18 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>4304606005012</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>4304606005012</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>0.774</v>
+        <v>6.862</v>
       </c>
       <c r="D28" t="n">
-        <v>0.266</v>
+        <v>120.7769591519591</v>
       </c>
       <c r="E28" t="n">
-        <v>6.862</v>
-      </c>
-      <c r="F28" t="n">
-        <v>120.7769591519591</v>
-      </c>
-      <c r="G28" t="n">
         <v>43.80757575757574</v>
       </c>
     </row>
@@ -1090,22 +972,18 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>4304606005013</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>4304606005013</t>
+        </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8012048192771084</v>
+        <v>6.775100401606426</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3172690763052209</v>
+        <v>127.2487162547403</v>
       </c>
       <c r="E29" t="n">
-        <v>6.775100401606426</v>
-      </c>
-      <c r="F29" t="n">
-        <v>127.2487162547403</v>
-      </c>
-      <c r="G29" t="n">
         <v>49.07737844484832</v>
       </c>
     </row>
@@ -1113,22 +991,18 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>4304606005014</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>4304606005014</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9698795180722892</v>
+        <v>7.692771084337349</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3654618473895582</v>
+        <v>134.2217585351886</v>
       </c>
       <c r="E30" t="n">
-        <v>7.692771084337349</v>
-      </c>
-      <c r="F30" t="n">
-        <v>134.2217585351886</v>
-      </c>
-      <c r="G30" t="n">
         <v>53.62366047607011</v>
       </c>
     </row>
@@ -1136,22 +1010,18 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>4304606005015</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>4304606005015</t>
+        </is>
       </c>
       <c r="C31" t="n">
-        <v>1.264</v>
+        <v>10.864</v>
       </c>
       <c r="D31" t="n">
-        <v>0.418</v>
+        <v>120.4266513070692</v>
       </c>
       <c r="E31" t="n">
-        <v>10.864</v>
-      </c>
-      <c r="F31" t="n">
-        <v>120.4266513070692</v>
-      </c>
-      <c r="G31" t="n">
         <v>40.5822160209931</v>
       </c>
     </row>
@@ -1159,22 +1029,18 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>4304606005016</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>4304606005016</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>0.8877755511022044</v>
+        <v>7.298597194388778</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3366733466933868</v>
+        <v>131.1767390925707</v>
       </c>
       <c r="E32" t="n">
-        <v>7.298597194388778</v>
-      </c>
-      <c r="F32" t="n">
-        <v>131.1767390925707</v>
-      </c>
-      <c r="G32" t="n">
         <v>49.22079423582429</v>
       </c>
     </row>
@@ -1182,22 +1048,18 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>4304606005017</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>4304606005017</t>
+        </is>
       </c>
       <c r="C33" t="n">
-        <v>1.202</v>
+        <v>10.528</v>
       </c>
       <c r="D33" t="n">
-        <v>0.432</v>
+        <v>118.3372833307043</v>
       </c>
       <c r="E33" t="n">
-        <v>10.528</v>
-      </c>
-      <c r="F33" t="n">
-        <v>118.3372833307043</v>
-      </c>
-      <c r="G33" t="n">
         <v>43.78862811595006</v>
       </c>
     </row>
@@ -1205,22 +1067,18 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>4304606005018</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>4304606005018</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>1.22</v>
+        <v>9.157999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.378</v>
+        <v>140.9982364814408</v>
       </c>
       <c r="E34" t="n">
-        <v>9.157999999999999</v>
-      </c>
-      <c r="F34" t="n">
-        <v>140.9982364814408</v>
-      </c>
-      <c r="G34" t="n">
         <v>43.39735325733776</v>
       </c>
     </row>
@@ -1228,22 +1086,18 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>4304606005019</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>4304606005019</t>
+        </is>
       </c>
       <c r="C35" t="n">
-        <v>1.44</v>
+        <v>10.992</v>
       </c>
       <c r="D35" t="n">
-        <v>0.54</v>
+        <v>137.3808254947068</v>
       </c>
       <c r="E35" t="n">
-        <v>10.992</v>
-      </c>
-      <c r="F35" t="n">
-        <v>137.3808254947068</v>
-      </c>
-      <c r="G35" t="n">
         <v>50.24168736843387</v>
       </c>
     </row>
@@ -1251,22 +1105,18 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>4306767003001</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4306767003001</t>
+        </is>
       </c>
       <c r="C36" t="n">
-        <v>0.822</v>
+        <v>6.724</v>
       </c>
       <c r="D36" t="n">
-        <v>0.286</v>
+        <v>127.1591722003486</v>
       </c>
       <c r="E36" t="n">
-        <v>6.724</v>
-      </c>
-      <c r="F36" t="n">
-        <v>127.1591722003486</v>
-      </c>
-      <c r="G36" t="n">
         <v>44.20419580419581</v>
       </c>
     </row>
@@ -1274,22 +1124,18 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>4306767003002</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>4306767003002</t>
+        </is>
       </c>
       <c r="C37" t="n">
-        <v>1.316</v>
+        <v>11.226</v>
       </c>
       <c r="D37" t="n">
-        <v>0.44</v>
+        <v>123.3846199723908</v>
       </c>
       <c r="E37" t="n">
-        <v>11.226</v>
-      </c>
-      <c r="F37" t="n">
-        <v>123.3846199723908</v>
-      </c>
-      <c r="G37" t="n">
         <v>41.05043113920822</v>
       </c>
     </row>
@@ -1297,22 +1143,18 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>4307708003001</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>4307708003001</t>
+        </is>
       </c>
       <c r="C38" t="n">
-        <v>0.922</v>
+        <v>7.418</v>
       </c>
       <c r="D38" t="n">
-        <v>0.35</v>
+        <v>133.4281246531245</v>
       </c>
       <c r="E38" t="n">
-        <v>7.418</v>
-      </c>
-      <c r="F38" t="n">
-        <v>133.4281246531245</v>
-      </c>
-      <c r="G38" t="n">
         <v>50.28308913308913</v>
       </c>
     </row>
@@ -1320,22 +1162,18 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>4307708003002</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>4307708003002</t>
+        </is>
       </c>
       <c r="C39" t="n">
-        <v>0.964</v>
+        <v>7.648</v>
       </c>
       <c r="D39" t="n">
-        <v>0.348</v>
+        <v>130.5831720567014</v>
       </c>
       <c r="E39" t="n">
-        <v>7.648</v>
-      </c>
-      <c r="F39" t="n">
-        <v>130.5831720567014</v>
-      </c>
-      <c r="G39" t="n">
         <v>45.93441558441559</v>
       </c>
     </row>
@@ -1343,22 +1181,18 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>4307708003003</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>4307708003003</t>
+        </is>
       </c>
       <c r="C40" t="n">
-        <v>0.73</v>
+        <v>7.262</v>
       </c>
       <c r="D40" t="n">
-        <v>0.28</v>
+        <v>108.4538830450595</v>
       </c>
       <c r="E40" t="n">
-        <v>7.262</v>
-      </c>
-      <c r="F40" t="n">
-        <v>108.4538830450595</v>
-      </c>
-      <c r="G40" t="n">
         <v>40.78962508080154</v>
       </c>
     </row>
@@ -1366,22 +1200,18 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>4307708003004</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>4307708003004</t>
+        </is>
       </c>
       <c r="C41" t="n">
-        <v>1.288</v>
+        <v>10.414</v>
       </c>
       <c r="D41" t="n">
-        <v>0.438</v>
+        <v>127.5405407372125</v>
       </c>
       <c r="E41" t="n">
-        <v>10.414</v>
-      </c>
-      <c r="F41" t="n">
-        <v>127.5405407372125</v>
-      </c>
-      <c r="G41" t="n">
         <v>43.52427902335023</v>
       </c>
     </row>
@@ -1389,22 +1219,18 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>4307708003005</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>4307708003005</t>
+        </is>
       </c>
       <c r="C42" t="n">
-        <v>1.238</v>
+        <v>9.968</v>
       </c>
       <c r="D42" t="n">
-        <v>0.424</v>
+        <v>127.1209638400814</v>
       </c>
       <c r="E42" t="n">
-        <v>9.968</v>
-      </c>
-      <c r="F42" t="n">
-        <v>127.1209638400814</v>
-      </c>
-      <c r="G42" t="n">
         <v>43.22039871892812</v>
       </c>
     </row>
@@ -1412,22 +1238,18 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>4309209005001</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>4309209005001</t>
+        </is>
       </c>
       <c r="C43" t="n">
-        <v>1.554</v>
+        <v>12.38</v>
       </c>
       <c r="D43" t="n">
-        <v>0.578</v>
+        <v>131.3521704989197</v>
       </c>
       <c r="E43" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="F43" t="n">
-        <v>131.3521704989197</v>
-      </c>
-      <c r="G43" t="n">
         <v>49.3993979274939</v>
       </c>
     </row>
@@ -1435,22 +1257,18 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>4309209005002</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>4309209005002</t>
+        </is>
       </c>
       <c r="C44" t="n">
-        <v>1.312</v>
+        <v>10.742</v>
       </c>
       <c r="D44" t="n">
-        <v>0.478</v>
+        <v>124.2693785884625</v>
       </c>
       <c r="E44" t="n">
-        <v>10.742</v>
-      </c>
-      <c r="F44" t="n">
-        <v>124.2693785884625</v>
-      </c>
-      <c r="G44" t="n">
         <v>45.28715938605897</v>
       </c>
     </row>
@@ -1458,22 +1276,18 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>4309209005003</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>4309209005003</t>
+        </is>
       </c>
       <c r="C45" t="n">
-        <v>1.348</v>
+        <v>10.126</v>
       </c>
       <c r="D45" t="n">
-        <v>0.508</v>
+        <v>140.5777703720427</v>
       </c>
       <c r="E45" t="n">
-        <v>10.126</v>
-      </c>
-      <c r="F45" t="n">
-        <v>140.5777703720427</v>
-      </c>
-      <c r="G45" t="n">
         <v>54.0330461592071</v>
       </c>
     </row>
@@ -1481,22 +1295,18 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>4309209005004</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>4309209005004</t>
+        </is>
       </c>
       <c r="C46" t="n">
-        <v>0.8795180722891566</v>
+        <v>6.748995983935743</v>
       </c>
       <c r="D46" t="n">
-        <v>0.321285140562249</v>
+        <v>139.9462457444384</v>
       </c>
       <c r="E46" t="n">
-        <v>6.748995983935743</v>
-      </c>
-      <c r="F46" t="n">
-        <v>139.9462457444384</v>
-      </c>
-      <c r="G46" t="n">
         <v>51.91499152342525</v>
       </c>
     </row>
@@ -1504,22 +1314,18 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>4309209005005</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>4309209005005</t>
+        </is>
       </c>
       <c r="C47" t="n">
-        <v>1.476</v>
+        <v>11.174</v>
       </c>
       <c r="D47" t="n">
-        <v>0.55</v>
+        <v>139.8047216972914</v>
       </c>
       <c r="E47" t="n">
-        <v>11.174</v>
-      </c>
-      <c r="F47" t="n">
-        <v>139.8047216972914</v>
-      </c>
-      <c r="G47" t="n">
         <v>52.12835379275006</v>
       </c>
     </row>
@@ -1527,22 +1333,18 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
-        <v>4309209005006</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>4309209005006</t>
+        </is>
       </c>
       <c r="C48" t="n">
-        <v>1.192</v>
+        <v>10.096</v>
       </c>
       <c r="D48" t="n">
-        <v>0.454</v>
+        <v>122.6394268184516</v>
       </c>
       <c r="E48" t="n">
-        <v>10.096</v>
-      </c>
-      <c r="F48" t="n">
-        <v>122.6394268184516</v>
-      </c>
-      <c r="G48" t="n">
         <v>45.54962732485951</v>
       </c>
     </row>
@@ -1550,22 +1352,18 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>4309209005007</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>4309209005007</t>
+        </is>
       </c>
       <c r="C49" t="n">
-        <v>0.984</v>
+        <v>7.956</v>
       </c>
       <c r="D49" t="n">
-        <v>0.368</v>
+        <v>133.6335914085913</v>
       </c>
       <c r="E49" t="n">
-        <v>7.956</v>
-      </c>
-      <c r="F49" t="n">
-        <v>133.6335914085913</v>
-      </c>
-      <c r="G49" t="n">
         <v>49.72779165279162</v>
       </c>
     </row>
@@ -1573,22 +1371,18 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>4309209005008</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>4309209005008</t>
+        </is>
       </c>
       <c r="C50" t="n">
-        <v>0.89</v>
+        <v>8.246</v>
       </c>
       <c r="D50" t="n">
-        <v>0.328</v>
+        <v>108.5197160682454</v>
       </c>
       <c r="E50" t="n">
-        <v>8.246</v>
-      </c>
-      <c r="F50" t="n">
-        <v>108.5197160682454</v>
-      </c>
-      <c r="G50" t="n">
         <v>40.87571676689323</v>
       </c>
     </row>
@@ -1596,22 +1390,18 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
-        <v>4309209005009</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>4309209005009</t>
+        </is>
       </c>
       <c r="C51" t="n">
-        <v>1.028</v>
+        <v>8.098000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.384</v>
+        <v>133.9827105900634</v>
       </c>
       <c r="E51" t="n">
-        <v>8.098000000000001</v>
-      </c>
-      <c r="F51" t="n">
-        <v>133.9827105900634</v>
-      </c>
-      <c r="G51" t="n">
         <v>50.643315018315</v>
       </c>
     </row>
@@ -1619,22 +1409,18 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>4309209005010</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>4309209005010</t>
+        </is>
       </c>
       <c r="C52" t="n">
-        <v>0.9739478957915833</v>
+        <v>7.713426853707415</v>
       </c>
       <c r="D52" t="n">
-        <v>0.342685370741483</v>
+        <v>131.8502139143421</v>
       </c>
       <c r="E52" t="n">
-        <v>7.713426853707415</v>
-      </c>
-      <c r="F52" t="n">
-        <v>131.8502139143421</v>
-      </c>
-      <c r="G52" t="n">
         <v>46.6078677501523</v>
       </c>
     </row>
@@ -1642,22 +1428,18 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
-        <v>4309209005011</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>4309209005011</t>
+        </is>
       </c>
       <c r="C53" t="n">
-        <v>1.052104208416833</v>
+        <v>8.292585170340681</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4028056112224449</v>
+        <v>132.3268097640371</v>
       </c>
       <c r="E53" t="n">
-        <v>8.292585170340681</v>
-      </c>
-      <c r="F53" t="n">
-        <v>132.3268097640371</v>
-      </c>
-      <c r="G53" t="n">
         <v>50.98585171230456</v>
       </c>
     </row>
@@ -1665,22 +1447,18 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>4309209005012</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>4309209005012</t>
+        </is>
       </c>
       <c r="C54" t="n">
-        <v>1.448</v>
+        <v>10.914</v>
       </c>
       <c r="D54" t="n">
-        <v>0.502</v>
+        <v>137.8922972710125</v>
       </c>
       <c r="E54" t="n">
-        <v>10.914</v>
-      </c>
-      <c r="F54" t="n">
-        <v>137.8922972710125</v>
-      </c>
-      <c r="G54" t="n">
         <v>48.39506950737599</v>
       </c>
     </row>
@@ -1688,22 +1466,18 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
-        <v>4309209005013</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>4309209005013</t>
+        </is>
       </c>
       <c r="C55" t="n">
-        <v>0.8832997987927566</v>
+        <v>6.243460764587526</v>
       </c>
       <c r="D55" t="n">
-        <v>0.317907444668008</v>
+        <v>162.1374936264272</v>
       </c>
       <c r="E55" t="n">
-        <v>6.243460764587526</v>
-      </c>
-      <c r="F55" t="n">
-        <v>162.1374936264272</v>
-      </c>
-      <c r="G55" t="n">
         <v>55.67749933947117</v>
       </c>
     </row>
@@ -1711,22 +1485,18 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
-        <v>4309209005014</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>4309209005014</t>
+        </is>
       </c>
       <c r="C56" t="n">
-        <v>0.7686116700201208</v>
+        <v>6.543259557344064</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2997987927565392</v>
+        <v>125.9696875894059</v>
       </c>
       <c r="E56" t="n">
-        <v>6.543259557344064</v>
-      </c>
-      <c r="F56" t="n">
-        <v>125.9696875894059</v>
-      </c>
-      <c r="G56" t="n">
         <v>50.77245580263688</v>
       </c>
     </row>
@@ -1734,22 +1504,18 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>4309209005015</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>4309209005015</t>
+        </is>
       </c>
       <c r="C57" t="n">
-        <v>1.236</v>
+        <v>10.206</v>
       </c>
       <c r="D57" t="n">
-        <v>0.476</v>
+        <v>129.4710356636828</v>
       </c>
       <c r="E57" t="n">
-        <v>10.206</v>
-      </c>
-      <c r="F57" t="n">
-        <v>129.4710356636828</v>
-      </c>
-      <c r="G57" t="n">
         <v>47.30161962220783</v>
       </c>
     </row>
@@ -1757,22 +1523,18 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
-        <v>4309308003001</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>4309308003001</t>
+        </is>
       </c>
       <c r="C58" t="n">
-        <v>0.864</v>
+        <v>7.026</v>
       </c>
       <c r="D58" t="n">
-        <v>0.282</v>
+        <v>131.4451714951715</v>
       </c>
       <c r="E58" t="n">
-        <v>7.026</v>
-      </c>
-      <c r="F58" t="n">
-        <v>131.4451714951715</v>
-      </c>
-      <c r="G58" t="n">
         <v>43.65906315906314</v>
       </c>
     </row>
@@ -1780,22 +1542,18 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>4309308003002</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>4309308003002</t>
+        </is>
       </c>
       <c r="C59" t="n">
-        <v>0.8269617706237424</v>
+        <v>6.317907444668008</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3138832997987927</v>
+        <v>139.5402468088585</v>
       </c>
       <c r="E59" t="n">
-        <v>6.317907444668008</v>
-      </c>
-      <c r="F59" t="n">
-        <v>139.5402468088585</v>
-      </c>
-      <c r="G59" t="n">
         <v>51.78575895376697</v>
       </c>
     </row>
@@ -1803,22 +1561,18 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>4309308003003</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4309308003003</t>
+        </is>
       </c>
       <c r="C60" t="n">
-        <v>0.89</v>
+        <v>7.416</v>
       </c>
       <c r="D60" t="n">
-        <v>0.32</v>
+        <v>125.4158397158396</v>
       </c>
       <c r="E60" t="n">
-        <v>7.416</v>
-      </c>
-      <c r="F60" t="n">
-        <v>125.4158397158396</v>
-      </c>
-      <c r="G60" t="n">
         <v>43.317094017094</v>
       </c>
     </row>
@@ -1826,22 +1580,18 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>4309308003004</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4309308003004</t>
+        </is>
       </c>
       <c r="C61" t="n">
-        <v>1.718</v>
+        <v>13.788</v>
       </c>
       <c r="D61" t="n">
-        <v>0.614</v>
+        <v>127.0132760308894</v>
       </c>
       <c r="E61" t="n">
-        <v>13.788</v>
-      </c>
-      <c r="F61" t="n">
-        <v>127.0132760308894</v>
-      </c>
-      <c r="G61" t="n">
         <v>46.02756684581624</v>
       </c>
     </row>
@@ -1849,22 +1599,18 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>4309308003005</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>4309308003005</t>
+        </is>
       </c>
       <c r="C62" t="n">
-        <v>1.974</v>
+        <v>15.688</v>
       </c>
       <c r="D62" t="n">
-        <v>0.736</v>
+        <v>132.4847349278052</v>
       </c>
       <c r="E62" t="n">
-        <v>15.688</v>
-      </c>
-      <c r="F62" t="n">
-        <v>132.4847349278052</v>
-      </c>
-      <c r="G62" t="n">
         <v>49.50178998887566</v>
       </c>
     </row>
@@ -1872,22 +1618,18 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>4313375001001</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>4313375001001</t>
+        </is>
       </c>
       <c r="C63" t="n">
-        <v>1.538</v>
+        <v>11.442</v>
       </c>
       <c r="D63" t="n">
-        <v>0.546</v>
+        <v>137.0146739397512</v>
       </c>
       <c r="E63" t="n">
-        <v>11.442</v>
-      </c>
-      <c r="F63" t="n">
-        <v>137.0146739397512</v>
-      </c>
-      <c r="G63" t="n">
         <v>50.3352625616557</v>
       </c>
     </row>
@@ -1895,22 +1637,18 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
-        <v>4314902004001</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>4314902004001</t>
+        </is>
       </c>
       <c r="C64" t="n">
-        <v>1.052</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.386</v>
+        <v>115.7844812192638</v>
       </c>
       <c r="E64" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="F64" t="n">
-        <v>115.7844812192638</v>
-      </c>
-      <c r="G64" t="n">
         <v>43.30655178155178</v>
       </c>
     </row>
@@ -1918,22 +1656,18 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>4314902004002</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>4314902004002</t>
+        </is>
       </c>
       <c r="C65" t="n">
-        <v>1.584</v>
+        <v>12.842</v>
       </c>
       <c r="D65" t="n">
-        <v>0.548</v>
+        <v>127.1354239435501</v>
       </c>
       <c r="E65" t="n">
-        <v>12.842</v>
-      </c>
-      <c r="F65" t="n">
-        <v>127.1354239435501</v>
-      </c>
-      <c r="G65" t="n">
         <v>43.55436505359103</v>
       </c>
     </row>
@@ -1941,22 +1675,18 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>4314902004003</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>4314902004003</t>
+        </is>
       </c>
       <c r="C66" t="n">
-        <v>1.622</v>
+        <v>12.646</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6</v>
+        <v>131.2375979742079</v>
       </c>
       <c r="E66" t="n">
-        <v>12.646</v>
-      </c>
-      <c r="F66" t="n">
-        <v>131.2375979742079</v>
-      </c>
-      <c r="G66" t="n">
         <v>48.57542192642807</v>
       </c>
     </row>
@@ -1964,22 +1694,18 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>4314902004004</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>4314902004004</t>
+        </is>
       </c>
       <c r="C67" t="n">
-        <v>1.518</v>
+        <v>12.326</v>
       </c>
       <c r="D67" t="n">
-        <v>0.572</v>
+        <v>125.5778414538006</v>
       </c>
       <c r="E67" t="n">
-        <v>12.326</v>
-      </c>
-      <c r="F67" t="n">
-        <v>125.5778414538006</v>
-      </c>
-      <c r="G67" t="n">
         <v>47.3253677664971</v>
       </c>
     </row>
@@ -1987,22 +1713,18 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>4314902004005</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>4314902004005</t>
+        </is>
       </c>
       <c r="C68" t="n">
-        <v>12.034</v>
+        <v>96.28</v>
       </c>
       <c r="D68" t="n">
-        <v>4.44</v>
+        <v>126.353146035044</v>
       </c>
       <c r="E68" t="n">
-        <v>96.28</v>
-      </c>
-      <c r="F68" t="n">
-        <v>126.353146035044</v>
-      </c>
-      <c r="G68" t="n">
         <v>46.60196329434866</v>
       </c>
     </row>
@@ -2010,22 +1732,18 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>4314902004006</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>4314902004006</t>
+        </is>
       </c>
       <c r="C69" t="n">
-        <v>1.53</v>
+        <v>12.758</v>
       </c>
       <c r="D69" t="n">
-        <v>0.592</v>
+        <v>124.8537063383812</v>
       </c>
       <c r="E69" t="n">
-        <v>12.758</v>
-      </c>
-      <c r="F69" t="n">
-        <v>124.8537063383812</v>
-      </c>
-      <c r="G69" t="n">
         <v>48.5987743508641</v>
       </c>
     </row>
@@ -2033,22 +1751,18 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>4314902004007</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>4314902004007</t>
+        </is>
       </c>
       <c r="C70" t="n">
-        <v>1.798</v>
+        <v>13.676</v>
       </c>
       <c r="D70" t="n">
-        <v>0.67</v>
+        <v>138.0969494051214</v>
       </c>
       <c r="E70" t="n">
-        <v>13.676</v>
-      </c>
-      <c r="F70" t="n">
-        <v>138.0969494051214</v>
-      </c>
-      <c r="G70" t="n">
         <v>51.75594518701261</v>
       </c>
     </row>
@@ -2056,22 +1770,18 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>4314902004008</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>4314902004008</t>
+        </is>
       </c>
       <c r="C71" t="n">
-        <v>1.632</v>
+        <v>12.99</v>
       </c>
       <c r="D71" t="n">
-        <v>0.588</v>
+        <v>129.1728916650272</v>
       </c>
       <c r="E71" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="F71" t="n">
-        <v>129.1728916650272</v>
-      </c>
-      <c r="G71" t="n">
         <v>46.84625930485064</v>
       </c>
     </row>
@@ -2079,22 +1789,18 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>4314902004009</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>4314902004009</t>
+        </is>
       </c>
       <c r="C72" t="n">
-        <v>1.876</v>
+        <v>14.996</v>
       </c>
       <c r="D72" t="n">
-        <v>0.676</v>
+        <v>128.6603844510286</v>
       </c>
       <c r="E72" t="n">
-        <v>14.996</v>
-      </c>
-      <c r="F72" t="n">
-        <v>128.6603844510286</v>
-      </c>
-      <c r="G72" t="n">
         <v>45.62615360440102</v>
       </c>
     </row>
@@ -2102,22 +1808,18 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
-        <v>4314902004010</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>4314902004010</t>
+        </is>
       </c>
       <c r="C73" t="n">
-        <v>1.306</v>
+        <v>11.388</v>
       </c>
       <c r="D73" t="n">
-        <v>0.454</v>
+        <v>116.7505748887596</v>
       </c>
       <c r="E73" t="n">
-        <v>11.388</v>
-      </c>
-      <c r="F73" t="n">
-        <v>116.7505748887596</v>
-      </c>
-      <c r="G73" t="n">
         <v>41.47561550936162</v>
       </c>
     </row>
@@ -2125,22 +1827,18 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>4314902004011</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>4314902004011</t>
+        </is>
       </c>
       <c r="C74" t="n">
-        <v>1.352</v>
+        <v>12.126</v>
       </c>
       <c r="D74" t="n">
-        <v>0.49</v>
+        <v>119.2369697296168</v>
       </c>
       <c r="E74" t="n">
-        <v>12.126</v>
-      </c>
-      <c r="F74" t="n">
-        <v>119.2369697296168</v>
-      </c>
-      <c r="G74" t="n">
         <v>42.50212301458429</v>
       </c>
     </row>
@@ -2148,22 +1846,18 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>4314902004012</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>4314902004012</t>
+        </is>
       </c>
       <c r="C75" t="n">
-        <v>1.29</v>
+        <v>10.948</v>
       </c>
       <c r="D75" t="n">
-        <v>0.482</v>
+        <v>123.0824733144391</v>
       </c>
       <c r="E75" t="n">
-        <v>10.948</v>
-      </c>
-      <c r="F75" t="n">
-        <v>123.0824733144391</v>
-      </c>
-      <c r="G75" t="n">
         <v>45.47145260140613</v>
       </c>
     </row>
@@ -2171,22 +1865,18 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>4314902004013</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>4314902004013</t>
+        </is>
       </c>
       <c r="C76" t="n">
-        <v>3.964</v>
+        <v>30.078</v>
       </c>
       <c r="D76" t="n">
-        <v>1.336</v>
+        <v>134.6475445957451</v>
       </c>
       <c r="E76" t="n">
-        <v>30.078</v>
-      </c>
-      <c r="F76" t="n">
-        <v>134.6475445957451</v>
-      </c>
-      <c r="G76" t="n">
         <v>45.60972542249944</v>
       </c>
     </row>
@@ -2194,22 +1884,18 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>4314902004014</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>4314902004014</t>
+        </is>
       </c>
       <c r="C77" t="n">
-        <v>1.156</v>
+        <v>10.65</v>
       </c>
       <c r="D77" t="n">
-        <v>0.416</v>
+        <v>114.1894993894994</v>
       </c>
       <c r="E77" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="F77" t="n">
-        <v>114.1894993894994</v>
-      </c>
-      <c r="G77" t="n">
         <v>42.03867651955885</v>
       </c>
     </row>
@@ -2217,22 +1903,18 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>4314902004015</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>4314902004015</t>
+        </is>
       </c>
       <c r="C78" t="n">
-        <v>1.788</v>
+        <v>14.988</v>
       </c>
       <c r="D78" t="n">
-        <v>0.62</v>
+        <v>123.2644876454366</v>
       </c>
       <c r="E78" t="n">
-        <v>14.988</v>
-      </c>
-      <c r="F78" t="n">
-        <v>123.2644876454366</v>
-      </c>
-      <c r="G78" t="n">
         <v>44.12966021997921</v>
       </c>
     </row>
@@ -2240,22 +1922,18 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>4314902004016</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>4314902004016</t>
+        </is>
       </c>
       <c r="C79" t="n">
-        <v>1.542</v>
+        <v>12.71</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5679999999999999</v>
+        <v>125.5507643543248</v>
       </c>
       <c r="E79" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="F79" t="n">
-        <v>125.5507643543248</v>
-      </c>
-      <c r="G79" t="n">
         <v>46.22464796984922</v>
       </c>
     </row>
@@ -2263,22 +1941,18 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>4314902004017</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>4314902004017</t>
+        </is>
       </c>
       <c r="C80" t="n">
-        <v>1.356</v>
+        <v>11.034</v>
       </c>
       <c r="D80" t="n">
-        <v>0.476</v>
+        <v>129.8469861322029</v>
       </c>
       <c r="E80" t="n">
-        <v>11.034</v>
-      </c>
-      <c r="F80" t="n">
-        <v>129.8469861322029</v>
-      </c>
-      <c r="G80" t="n">
         <v>45.24567792888226</v>
       </c>
     </row>
@@ -2286,22 +1960,18 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
-        <v>4314902004018</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>4314902004018</t>
+        </is>
       </c>
       <c r="C81" t="n">
-        <v>1.624</v>
+        <v>12.814</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5659999999999999</v>
+        <v>128.182109106251</v>
       </c>
       <c r="E81" t="n">
-        <v>12.814</v>
-      </c>
-      <c r="F81" t="n">
-        <v>128.182109106251</v>
-      </c>
-      <c r="G81" t="n">
         <v>45.12782985250342</v>
       </c>
     </row>
@@ -2309,22 +1979,18 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
-        <v>4314902004019</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>4314902004019</t>
+        </is>
       </c>
       <c r="C82" t="n">
-        <v>1.672</v>
+        <v>13.77</v>
       </c>
       <c r="D82" t="n">
-        <v>0.574</v>
+        <v>127.3477849263702</v>
       </c>
       <c r="E82" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="F82" t="n">
-        <v>127.3477849263702</v>
-      </c>
-      <c r="G82" t="n">
         <v>43.8589021866394</v>
       </c>
     </row>
@@ -2332,22 +1998,18 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
-        <v>4314902004020</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>4314902004020</t>
+        </is>
       </c>
       <c r="C83" t="n">
-        <v>2.842</v>
+        <v>21.826</v>
       </c>
       <c r="D83" t="n">
-        <v>1.076</v>
+        <v>131.9985314737817</v>
       </c>
       <c r="E83" t="n">
-        <v>21.826</v>
-      </c>
-      <c r="F83" t="n">
-        <v>131.9985314737817</v>
-      </c>
-      <c r="G83" t="n">
         <v>49.7358105896468</v>
       </c>
     </row>
@@ -2355,22 +2017,18 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
-        <v>4314902004021</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>4314902004021</t>
+        </is>
       </c>
       <c r="C84" t="n">
-        <v>1.682</v>
+        <v>14.086</v>
       </c>
       <c r="D84" t="n">
-        <v>0.586</v>
+        <v>121.571973127007</v>
       </c>
       <c r="E84" t="n">
-        <v>14.086</v>
-      </c>
-      <c r="F84" t="n">
-        <v>121.571973127007</v>
-      </c>
-      <c r="G84" t="n">
         <v>41.78319144100543</v>
       </c>
     </row>
@@ -2378,22 +2036,18 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
-        <v>4314902004022</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>4314902004022</t>
+        </is>
       </c>
       <c r="C85" t="n">
-        <v>2.018</v>
+        <v>16.754</v>
       </c>
       <c r="D85" t="n">
-        <v>0.706</v>
+        <v>121.4008212098446</v>
       </c>
       <c r="E85" t="n">
-        <v>16.754</v>
-      </c>
-      <c r="F85" t="n">
-        <v>121.4008212098446</v>
-      </c>
-      <c r="G85" t="n">
         <v>42.95880176020165</v>
       </c>
     </row>
@@ -2401,22 +2055,18 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
-        <v>4314902004023</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>4314902004023</t>
+        </is>
       </c>
       <c r="C86" t="n">
-        <v>2.334</v>
+        <v>18.844</v>
       </c>
       <c r="D86" t="n">
-        <v>0.806</v>
+        <v>126.1473277911396</v>
       </c>
       <c r="E86" t="n">
-        <v>18.844</v>
-      </c>
-      <c r="F86" t="n">
-        <v>126.1473277911396</v>
-      </c>
-      <c r="G86" t="n">
         <v>43.50005699485074</v>
       </c>
     </row>
@@ -2424,22 +2074,18 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
-        <v>4314902004024</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>4314902004024</t>
+        </is>
       </c>
       <c r="C87" t="n">
-        <v>2.986</v>
+        <v>23.514</v>
       </c>
       <c r="D87" t="n">
-        <v>1.104</v>
+        <v>129.1638392882847</v>
       </c>
       <c r="E87" t="n">
-        <v>23.514</v>
-      </c>
-      <c r="F87" t="n">
-        <v>129.1638392882847</v>
-      </c>
-      <c r="G87" t="n">
         <v>47.50064267936938</v>
       </c>
     </row>
@@ -2447,22 +2093,18 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
-        <v>4314902004025</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>4314902004025</t>
+        </is>
       </c>
       <c r="C88" t="n">
-        <v>2.09</v>
+        <v>15.412</v>
       </c>
       <c r="D88" t="n">
-        <v>0.784</v>
+        <v>138.932570213248</v>
       </c>
       <c r="E88" t="n">
-        <v>15.412</v>
-      </c>
-      <c r="F88" t="n">
-        <v>138.932570213248</v>
-      </c>
-      <c r="G88" t="n">
         <v>52.56691761342857</v>
       </c>
     </row>
@@ -2470,22 +2112,18 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
-        <v>4314902004026</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>4314902004026</t>
+        </is>
       </c>
       <c r="C89" t="n">
-        <v>1.78</v>
+        <v>13.248</v>
       </c>
       <c r="D89" t="n">
-        <v>0.632</v>
+        <v>142.1195271756108</v>
       </c>
       <c r="E89" t="n">
-        <v>13.248</v>
-      </c>
-      <c r="F89" t="n">
-        <v>142.1195271756108</v>
-      </c>
-      <c r="G89" t="n">
         <v>51.88445319730148</v>
       </c>
     </row>
@@ -2493,22 +2131,18 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
-        <v>4314902004027</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>4314902004027</t>
+        </is>
       </c>
       <c r="C90" t="n">
-        <v>2.974</v>
+        <v>22.806</v>
       </c>
       <c r="D90" t="n">
-        <v>1.064</v>
+        <v>133.0958044432633</v>
       </c>
       <c r="E90" t="n">
-        <v>22.806</v>
-      </c>
-      <c r="F90" t="n">
-        <v>133.0958044432633</v>
-      </c>
-      <c r="G90" t="n">
         <v>47.50139993084959</v>
       </c>
     </row>
@@ -2516,22 +2150,18 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
-        <v>4314902004028</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>4314902004028</t>
+        </is>
       </c>
       <c r="C91" t="n">
-        <v>1.864</v>
+        <v>14.948</v>
       </c>
       <c r="D91" t="n">
-        <v>0.666</v>
+        <v>129.3993737817199</v>
       </c>
       <c r="E91" t="n">
-        <v>14.948</v>
-      </c>
-      <c r="F91" t="n">
-        <v>129.3993737817199</v>
-      </c>
-      <c r="G91" t="n">
         <v>45.68903870392629</v>
       </c>
     </row>
@@ -2539,22 +2169,18 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
-        <v>4314902004029</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>4314902004029</t>
+        </is>
       </c>
       <c r="C92" t="n">
-        <v>1.44</v>
+        <v>11.922</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5</v>
+        <v>128.6672249319308</v>
       </c>
       <c r="E92" t="n">
-        <v>11.922</v>
-      </c>
-      <c r="F92" t="n">
-        <v>128.6672249319308</v>
-      </c>
-      <c r="G92" t="n">
         <v>43.44267258369424</v>
       </c>
     </row>
@@ -2562,22 +2188,18 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
-        <v>4314902004030</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>4314902004030</t>
+        </is>
       </c>
       <c r="C93" t="n">
-        <v>1.882</v>
+        <v>15.912</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6879999999999999</v>
+        <v>121.6824987994661</v>
       </c>
       <c r="E93" t="n">
-        <v>15.912</v>
-      </c>
-      <c r="F93" t="n">
-        <v>121.6824987994661</v>
-      </c>
-      <c r="G93" t="n">
         <v>44.62125584567835</v>
       </c>
     </row>
@@ -2585,22 +2207,18 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
-        <v>4314902004031</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>4314902004031</t>
+        </is>
       </c>
       <c r="C94" t="n">
-        <v>1.834</v>
+        <v>15.23</v>
       </c>
       <c r="D94" t="n">
-        <v>0.664</v>
+        <v>124.2117327493852</v>
       </c>
       <c r="E94" t="n">
-        <v>15.23</v>
-      </c>
-      <c r="F94" t="n">
-        <v>124.2117327493852</v>
-      </c>
-      <c r="G94" t="n">
         <v>45.28132836988468</v>
       </c>
     </row>
@@ -2608,22 +2226,18 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
-        <v>4314902004032</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>4314902004032</t>
+        </is>
       </c>
       <c r="C95" t="n">
-        <v>2.346</v>
+        <v>18.57</v>
       </c>
       <c r="D95" t="n">
-        <v>0.8179999999999999</v>
+        <v>129.2882402005197</v>
       </c>
       <c r="E95" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="F95" t="n">
-        <v>129.2882402005197</v>
-      </c>
-      <c r="G95" t="n">
         <v>45.40926816845381</v>
       </c>
     </row>
@@ -2631,22 +2245,18 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
-        <v>4314902004033</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>4314902004033</t>
+        </is>
       </c>
       <c r="C96" t="n">
-        <v>1.93</v>
+        <v>15.842</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6879999999999999</v>
+        <v>125.1589165087019</v>
       </c>
       <c r="E96" t="n">
-        <v>15.842</v>
-      </c>
-      <c r="F96" t="n">
-        <v>125.1589165087019</v>
-      </c>
-      <c r="G96" t="n">
         <v>45.05876788300461</v>
       </c>
     </row>
@@ -2654,22 +2264,18 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
-        <v>4314902004034</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>4314902004034</t>
+        </is>
       </c>
       <c r="C97" t="n">
-        <v>1.74</v>
+        <v>14.41</v>
       </c>
       <c r="D97" t="n">
-        <v>0.66</v>
+        <v>125.2776988419666</v>
       </c>
       <c r="E97" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="F97" t="n">
-        <v>125.2776988419666</v>
-      </c>
-      <c r="G97" t="n">
         <v>47.57060882574745</v>
       </c>
     </row>
@@ -2677,22 +2283,18 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
-        <v>4314902004035</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>4314902004035</t>
+        </is>
       </c>
       <c r="C98" t="n">
-        <v>1.7</v>
+        <v>13.776</v>
       </c>
       <c r="D98" t="n">
-        <v>0.578</v>
+        <v>126.9524003256033</v>
       </c>
       <c r="E98" t="n">
-        <v>13.776</v>
-      </c>
-      <c r="F98" t="n">
-        <v>126.9524003256033</v>
-      </c>
-      <c r="G98" t="n">
         <v>43.7558025421331</v>
       </c>
     </row>
@@ -2700,22 +2302,18 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
-        <v>4314902004036</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>4314902004036</t>
+        </is>
       </c>
       <c r="C99" t="n">
-        <v>2.808</v>
+        <v>22.916</v>
       </c>
       <c r="D99" t="n">
-        <v>0.988</v>
+        <v>126.517274233437</v>
       </c>
       <c r="E99" t="n">
-        <v>22.916</v>
-      </c>
-      <c r="F99" t="n">
-        <v>126.517274233437</v>
-      </c>
-      <c r="G99" t="n">
         <v>44.94870102828788</v>
       </c>
     </row>
@@ -2723,22 +2321,18 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
-        <v>4314902004037</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>4314902004037</t>
+        </is>
       </c>
       <c r="C100" t="n">
-        <v>2.452</v>
+        <v>20.228</v>
       </c>
       <c r="D100" t="n">
-        <v>0.924</v>
+        <v>124.7040737793082</v>
       </c>
       <c r="E100" t="n">
-        <v>20.228</v>
-      </c>
-      <c r="F100" t="n">
-        <v>124.7040737793082</v>
-      </c>
-      <c r="G100" t="n">
         <v>46.82399447219893</v>
       </c>
     </row>
@@ -2746,22 +2340,18 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
-        <v>4314902004038</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>4314902004038</t>
+        </is>
       </c>
       <c r="C101" t="n">
-        <v>1.79</v>
+        <v>14.49</v>
       </c>
       <c r="D101" t="n">
-        <v>0.63</v>
+        <v>125.6293077463659</v>
       </c>
       <c r="E101" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="F101" t="n">
-        <v>125.6293077463659</v>
-      </c>
-      <c r="G101" t="n">
         <v>44.62698018527739</v>
       </c>
     </row>
@@ -2769,22 +2359,18 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
-        <v>4314902004039</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>4314902004039</t>
+        </is>
       </c>
       <c r="C102" t="n">
-        <v>3.93</v>
+        <v>31.242</v>
       </c>
       <c r="D102" t="n">
-        <v>1.372</v>
+        <v>127.6348369128278</v>
       </c>
       <c r="E102" t="n">
-        <v>31.242</v>
-      </c>
-      <c r="F102" t="n">
-        <v>127.6348369128278</v>
-      </c>
-      <c r="G102" t="n">
         <v>44.62240767369708</v>
       </c>
     </row>
@@ -2792,22 +2378,18 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
-        <v>4314902004040</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>4314902004040</t>
+        </is>
       </c>
       <c r="C103" t="n">
-        <v>2.15</v>
+        <v>17.398</v>
       </c>
       <c r="D103" t="n">
-        <v>0.752</v>
+        <v>126.9850758575634</v>
       </c>
       <c r="E103" t="n">
-        <v>17.398</v>
-      </c>
-      <c r="F103" t="n">
-        <v>126.9850758575634</v>
-      </c>
-      <c r="G103" t="n">
         <v>44.39750489261058</v>
       </c>
     </row>
@@ -2815,22 +2397,18 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
-        <v>4314902004041</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>4314902004041</t>
+        </is>
       </c>
       <c r="C104" t="n">
-        <v>3.996</v>
+        <v>32.228</v>
       </c>
       <c r="D104" t="n">
-        <v>1.374</v>
+        <v>125.7421258221399</v>
       </c>
       <c r="E104" t="n">
-        <v>32.228</v>
-      </c>
-      <c r="F104" t="n">
-        <v>125.7421258221399</v>
-      </c>
-      <c r="G104" t="n">
         <v>43.45235340230543</v>
       </c>
     </row>
@@ -2838,22 +2416,18 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
-        <v>4314902004042</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>4314902004042</t>
+        </is>
       </c>
       <c r="C105" t="n">
-        <v>4.388</v>
+        <v>34.532</v>
       </c>
       <c r="D105" t="n">
-        <v>1.582</v>
+        <v>128.9216181434323</v>
       </c>
       <c r="E105" t="n">
-        <v>34.532</v>
-      </c>
-      <c r="F105" t="n">
-        <v>128.9216181434323</v>
-      </c>
-      <c r="G105" t="n">
         <v>46.49112743858549</v>
       </c>
     </row>
@@ -2861,22 +2435,18 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
-        <v>4320008003001</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>4320008003001</t>
+        </is>
       </c>
       <c r="C106" t="n">
-        <v>0.966</v>
+        <v>8.262</v>
       </c>
       <c r="D106" t="n">
-        <v>0.354</v>
+        <v>127.5564574314574</v>
       </c>
       <c r="E106" t="n">
-        <v>8.262</v>
-      </c>
-      <c r="F106" t="n">
-        <v>127.5564574314574</v>
-      </c>
-      <c r="G106" t="n">
         <v>47.1441613941614</v>
       </c>
     </row>
@@ -2884,22 +2454,18 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
-        <v>4320008003002</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>4320008003002</t>
+        </is>
       </c>
       <c r="C107" t="n">
-        <v>0.864</v>
+        <v>6.612</v>
       </c>
       <c r="D107" t="n">
-        <v>0.288</v>
+        <v>141.9932400932401</v>
       </c>
       <c r="E107" t="n">
-        <v>6.612</v>
-      </c>
-      <c r="F107" t="n">
-        <v>141.9932400932401</v>
-      </c>
-      <c r="G107" t="n">
         <v>47.70896325896325</v>
       </c>
     </row>
@@ -2907,22 +2473,18 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
-        <v>4320008003003</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>4320008003003</t>
+        </is>
       </c>
       <c r="C108" t="n">
-        <v>0.786</v>
+        <v>6.898</v>
       </c>
       <c r="D108" t="n">
-        <v>0.28</v>
+        <v>122.9631535131534</v>
       </c>
       <c r="E108" t="n">
-        <v>6.898</v>
-      </c>
-      <c r="F108" t="n">
-        <v>122.9631535131534</v>
-      </c>
-      <c r="G108" t="n">
         <v>44.13359418359416</v>
       </c>
     </row>
@@ -2930,22 +2492,18 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
-        <v>4320008003004</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>4320008003004</t>
+        </is>
       </c>
       <c r="C109" t="n">
-        <v>0.89</v>
+        <v>7.444</v>
       </c>
       <c r="D109" t="n">
-        <v>0.302</v>
+        <v>119.4359307359306</v>
       </c>
       <c r="E109" t="n">
-        <v>7.444</v>
-      </c>
-      <c r="F109" t="n">
-        <v>119.4359307359306</v>
-      </c>
-      <c r="G109" t="n">
         <v>39.32045732045731</v>
       </c>
     </row>
@@ -2953,22 +2511,18 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
-        <v>4320008003005</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>4320008003005</t>
+        </is>
       </c>
       <c r="C110" t="n">
-        <v>1.264</v>
+        <v>9.747999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.456</v>
+        <v>135.5520127189631</v>
       </c>
       <c r="E110" t="n">
-        <v>9.747999999999999</v>
-      </c>
-      <c r="F110" t="n">
-        <v>135.5520127189631</v>
-      </c>
-      <c r="G110" t="n">
         <v>49.4286321865269</v>
       </c>
     </row>
@@ -2976,22 +2530,18 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
-        <v>4320008003006</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>4320008003006</t>
+        </is>
       </c>
       <c r="C111" t="n">
-        <v>1.89</v>
+        <v>13.528</v>
       </c>
       <c r="D111" t="n">
-        <v>0.68</v>
+        <v>145.4343691568149</v>
       </c>
       <c r="E111" t="n">
-        <v>13.528</v>
-      </c>
-      <c r="F111" t="n">
-        <v>145.4343691568149</v>
-      </c>
-      <c r="G111" t="n">
         <v>52.92506562752693</v>
       </c>
     </row>
@@ -2999,22 +2549,18 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
-        <v>4320008003007</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>4320008003007</t>
+        </is>
       </c>
       <c r="C112" t="n">
-        <v>2.16</v>
+        <v>16.308</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8139999999999999</v>
+        <v>137.6567763721748</v>
       </c>
       <c r="E112" t="n">
-        <v>16.308</v>
-      </c>
-      <c r="F112" t="n">
-        <v>137.6567763721748</v>
-      </c>
-      <c r="G112" t="n">
         <v>51.78516683062182</v>
       </c>
     </row>
@@ -3022,22 +2568,18 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
-        <v>4323002004001</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>4323002004001</t>
+        </is>
       </c>
       <c r="C113" t="n">
-        <v>0.836</v>
+        <v>7.196</v>
       </c>
       <c r="D113" t="n">
-        <v>0.264</v>
+        <v>118.4294213955978</v>
       </c>
       <c r="E113" t="n">
-        <v>7.196</v>
-      </c>
-      <c r="F113" t="n">
-        <v>118.4294213955978</v>
-      </c>
-      <c r="G113" t="n">
         <v>38.00687923187922</v>
       </c>
     </row>
@@ -3045,22 +2587,18 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
-        <v>4323002004002</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>4323002004002</t>
+        </is>
       </c>
       <c r="C114" t="n">
-        <v>5.122</v>
+        <v>39.47</v>
       </c>
       <c r="D114" t="n">
-        <v>1.782</v>
+        <v>131.4975193810396</v>
       </c>
       <c r="E114" t="n">
-        <v>39.47</v>
-      </c>
-      <c r="F114" t="n">
-        <v>131.4975193810396</v>
-      </c>
-      <c r="G114" t="n">
         <v>45.63288455159145</v>
       </c>
     </row>
@@ -3068,22 +2606,18 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
-        <v>4323002004003</v>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>4323002004003</t>
+        </is>
       </c>
       <c r="C115" t="n">
-        <v>0.9078156312625252</v>
+        <v>8.062124248496994</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3266533066132264</v>
+        <v>125.252700428051</v>
       </c>
       <c r="E115" t="n">
-        <v>8.062124248496994</v>
-      </c>
-      <c r="F115" t="n">
-        <v>125.252700428051</v>
-      </c>
-      <c r="G115" t="n">
         <v>43.01435037907983</v>
       </c>
     </row>
@@ -3091,22 +2625,18 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
-        <v>4323002004004</v>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>4323002004004</t>
+        </is>
       </c>
       <c r="C116" t="n">
-        <v>1.024</v>
+        <v>7.612</v>
       </c>
       <c r="D116" t="n">
-        <v>0.364</v>
+        <v>143.2326506826507</v>
       </c>
       <c r="E116" t="n">
-        <v>7.612</v>
-      </c>
-      <c r="F116" t="n">
-        <v>143.2326506826507</v>
-      </c>
-      <c r="G116" t="n">
         <v>49.52001609501608</v>
       </c>
     </row>
@@ -3114,22 +2644,18 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
-        <v>4323002004005</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>4323002004005</t>
+        </is>
       </c>
       <c r="C117" t="n">
-        <v>1.048</v>
+        <v>9.256</v>
       </c>
       <c r="D117" t="n">
-        <v>0.404</v>
+        <v>121.9862462271131</v>
       </c>
       <c r="E117" t="n">
-        <v>9.256</v>
-      </c>
-      <c r="F117" t="n">
-        <v>121.9862462271131</v>
-      </c>
-      <c r="G117" t="n">
         <v>49.45691693926985</v>
       </c>
     </row>
@@ -3137,22 +2663,18 @@
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
-        <v>4323002004006</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>4323002004006</t>
+        </is>
       </c>
       <c r="C118" t="n">
-        <v>0.8717434869739479</v>
+        <v>7.468937875751503</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3286573146292585</v>
+        <v>126.7807823831635</v>
       </c>
       <c r="E118" t="n">
-        <v>7.468937875751503</v>
-      </c>
-      <c r="F118" t="n">
-        <v>126.7807823831635</v>
-      </c>
-      <c r="G118" t="n">
         <v>46.06244705560984</v>
       </c>
     </row>
@@ -3160,22 +2682,18 @@
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
-        <v>4323002004007</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>4323002004007</t>
+        </is>
       </c>
       <c r="C119" t="n">
-        <v>1.314</v>
+        <v>9.956</v>
       </c>
       <c r="D119" t="n">
-        <v>0.486</v>
+        <v>138.1075477438311</v>
       </c>
       <c r="E119" t="n">
-        <v>9.956</v>
-      </c>
-      <c r="F119" t="n">
-        <v>138.1075477438311</v>
-      </c>
-      <c r="G119" t="n">
         <v>51.93394134245523</v>
       </c>
     </row>
@@ -3183,22 +2701,18 @@
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
-        <v>4323002004008</v>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>4323002004008</t>
+        </is>
       </c>
       <c r="C120" t="n">
-        <v>1.104</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.392</v>
+        <v>140.0695764160159</v>
       </c>
       <c r="E120" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="F120" t="n">
-        <v>140.0695764160159</v>
-      </c>
-      <c r="G120" t="n">
         <v>50.08619611382767</v>
       </c>
     </row>
@@ -3206,22 +2720,18 @@
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
-        <v>4323002004009</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>4323002004009</t>
+        </is>
       </c>
       <c r="C121" t="n">
-        <v>0.852</v>
+        <v>7.554</v>
       </c>
       <c r="D121" t="n">
-        <v>0.286</v>
+        <v>120.2393606393605</v>
       </c>
       <c r="E121" t="n">
-        <v>7.554</v>
-      </c>
-      <c r="F121" t="n">
-        <v>120.2393606393605</v>
-      </c>
-      <c r="G121" t="n">
         <v>39.77690087690088</v>
       </c>
     </row>
@@ -3229,22 +2739,18 @@
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
-        <v>4323002004010</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>4323002004010</t>
+        </is>
       </c>
       <c r="C122" t="n">
-        <v>1.014</v>
+        <v>8.118</v>
       </c>
       <c r="D122" t="n">
-        <v>0.394</v>
+        <v>133.0486640810169</v>
       </c>
       <c r="E122" t="n">
-        <v>8.118</v>
-      </c>
-      <c r="F122" t="n">
-        <v>133.0486640810169</v>
-      </c>
-      <c r="G122" t="n">
         <v>51.34707237207235</v>
       </c>
     </row>
@@ -3252,22 +2758,18 @@
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
-        <v>4323002004011</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>4323002004011</t>
+        </is>
       </c>
       <c r="C123" t="n">
-        <v>1.712</v>
+        <v>13.758</v>
       </c>
       <c r="D123" t="n">
-        <v>0.614</v>
+        <v>130.6780075072172</v>
       </c>
       <c r="E123" t="n">
-        <v>13.758</v>
-      </c>
-      <c r="F123" t="n">
-        <v>130.6780075072172</v>
-      </c>
-      <c r="G123" t="n">
         <v>47.03769348986067</v>
       </c>
     </row>

--- a/VIDA2/data/PORTO ALEGRE.xlsx
+++ b/VIDA2/data/PORTO ALEGRE.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13.61</v>
+        <v>13.736</v>
       </c>
       <c r="D2" t="n">
-        <v>136.5490950222508</v>
+        <v>136.2840231611216</v>
       </c>
       <c r="E2" t="n">
-        <v>45.21146249392312</v>
+        <v>48.21318849146145</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.236000000000001</v>
+        <v>9.545</v>
       </c>
       <c r="D3" t="n">
-        <v>135.3504259929956</v>
+        <v>137.7977994593124</v>
       </c>
       <c r="E3" t="n">
-        <v>48.30215009448753</v>
+        <v>48.47724733127203</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10.414</v>
+        <v>10.7965</v>
       </c>
       <c r="D4" t="n">
-        <v>129.2207058249627</v>
+        <v>121.9265680175777</v>
       </c>
       <c r="E4" t="n">
-        <v>46.34298849585224</v>
+        <v>42.76712015194976</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15.01</v>
+        <v>14.9915</v>
       </c>
       <c r="D5" t="n">
-        <v>123.3027157875287</v>
+        <v>124.3239091152496</v>
       </c>
       <c r="E5" t="n">
-        <v>45.95982577527436</v>
+        <v>44.65244515090721</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8.51</v>
+        <v>8.443665498247372</v>
       </c>
       <c r="D6" t="n">
-        <v>120.1161893661893</v>
+        <v>127.0359481091598</v>
       </c>
       <c r="E6" t="n">
-        <v>45.09819069819068</v>
+        <v>44.50688866871963</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9.932</v>
+        <v>9.8165</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0803652372066</v>
+        <v>125.5791711835631</v>
       </c>
       <c r="E7" t="n">
-        <v>46.22742861713447</v>
+        <v>45.50254199275086</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11.998</v>
+        <v>11.813</v>
       </c>
       <c r="D8" t="n">
-        <v>125.5234981990533</v>
+        <v>132.0834548637558</v>
       </c>
       <c r="E8" t="n">
-        <v>43.78547033163066</v>
+        <v>43.46633796629921</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15.514</v>
+        <v>15.5185</v>
       </c>
       <c r="D9" t="n">
-        <v>120.4716476425292</v>
+        <v>121.6716106517793</v>
       </c>
       <c r="E9" t="n">
-        <v>43.80746086528894</v>
+        <v>43.95657235197813</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.417999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="D10" t="n">
-        <v>134.8100487747545</v>
+        <v>123.668728535938</v>
       </c>
       <c r="E10" t="n">
-        <v>45.20905532376122</v>
+        <v>45.15366837250326</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6.754</v>
+        <v>6.752128192288433</v>
       </c>
       <c r="D11" t="n">
-        <v>149.2340714840716</v>
+        <v>143.6202686202686</v>
       </c>
       <c r="E11" t="n">
-        <v>53.05843045843044</v>
+        <v>51.14257994828853</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.623246492985972</v>
+        <v>6.567404426559357</v>
       </c>
       <c r="D12" t="n">
-        <v>123.2691462400881</v>
+        <v>138.5602925467109</v>
       </c>
       <c r="E12" t="n">
-        <v>44.68128175543004</v>
+        <v>48.01740429255521</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13.576</v>
+        <v>14.0035</v>
       </c>
       <c r="D13" t="n">
-        <v>131.2794388728484</v>
+        <v>130.3511933802791</v>
       </c>
       <c r="E13" t="n">
-        <v>44.07985790192816</v>
+        <v>46.39589357573367</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7.150602409638554</v>
+        <v>7.171671671671672</v>
       </c>
       <c r="D14" t="n">
-        <v>122.7022921300029</v>
+        <v>133.4715822869416</v>
       </c>
       <c r="E14" t="n">
-        <v>44.97370657009208</v>
+        <v>48.5688425230909</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9.718</v>
+        <v>9.442500000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>126.3089681560269</v>
+        <v>127.024728984036</v>
       </c>
       <c r="E15" t="n">
-        <v>43.61567566420504</v>
+        <v>45.10748643556298</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19.184</v>
+        <v>19.159</v>
       </c>
       <c r="D16" t="n">
-        <v>133.3124164605712</v>
+        <v>126.7859442000759</v>
       </c>
       <c r="E16" t="n">
-        <v>46.70607746812488</v>
+        <v>45.95166125621199</v>
       </c>
     </row>
     <row r="17">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11.296</v>
+        <v>11.2075</v>
       </c>
       <c r="D17" t="n">
-        <v>126.9806564178855</v>
+        <v>130.9481913807724</v>
       </c>
       <c r="E17" t="n">
-        <v>47.436649779529</v>
+        <v>46.49635278936741</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>11.842</v>
+        <v>12.2905</v>
       </c>
       <c r="D18" t="n">
-        <v>135.8463698753945</v>
+        <v>130.1300273503933</v>
       </c>
       <c r="E18" t="n">
-        <v>48.09768057879512</v>
+        <v>47.3812821923107</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8.4</v>
+        <v>8.706</v>
       </c>
       <c r="D19" t="n">
-        <v>119.1555230287428</v>
+        <v>118.132742399499</v>
       </c>
       <c r="E19" t="n">
-        <v>40.33416354886939</v>
+        <v>41.60495561370169</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6.424</v>
+        <v>6.563408521303258</v>
       </c>
       <c r="D20" t="n">
-        <v>138.1836163836163</v>
+        <v>126.9960671464429</v>
       </c>
       <c r="E20" t="n">
-        <v>52.04535464535461</v>
+        <v>46.86914310974464</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>11.206</v>
+        <v>11.4045</v>
       </c>
       <c r="D21" t="n">
-        <v>125.8758727766602</v>
+        <v>133.5474797160705</v>
       </c>
       <c r="E21" t="n">
-        <v>47.06265557889261</v>
+        <v>46.02003220592604</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>8.116</v>
+        <v>8.256256256256256</v>
       </c>
       <c r="D22" t="n">
-        <v>124.1760733934108</v>
+        <v>127.6173239000034</v>
       </c>
       <c r="E22" t="n">
-        <v>41.81702904938197</v>
+        <v>46.42098939484554</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.01</v>
+        <v>9.049024512256128</v>
       </c>
       <c r="D23" t="n">
-        <v>126.2506681227269</v>
+        <v>126.0580430451851</v>
       </c>
       <c r="E23" t="n">
-        <v>49.44476161093806</v>
+        <v>46.46937461904133</v>
       </c>
     </row>
     <row r="24">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>12.512</v>
+        <v>12.746</v>
       </c>
       <c r="D24" t="n">
-        <v>122.3528603852288</v>
+        <v>137.5133675410228</v>
       </c>
       <c r="E24" t="n">
-        <v>47.678218310757</v>
+        <v>49.29896631084987</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8.050000000000001</v>
+        <v>7.9475</v>
       </c>
       <c r="D25" t="n">
-        <v>134.7507592081121</v>
+        <v>138.4273110059874</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81065960183602</v>
+        <v>50.43534769968587</v>
       </c>
     </row>
     <row r="26">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7.786</v>
+        <v>7.7185</v>
       </c>
       <c r="D26" t="n">
-        <v>131.8549950049949</v>
+        <v>130.0316694743163</v>
       </c>
       <c r="E26" t="n">
-        <v>44.7768509268509</v>
+        <v>45.00331376140197</v>
       </c>
     </row>
     <row r="27">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7.446</v>
+        <v>7.415207603801901</v>
       </c>
       <c r="D27" t="n">
-        <v>122.5119880119879</v>
+        <v>133.2480328853514</v>
       </c>
       <c r="E27" t="n">
-        <v>45.85841380841379</v>
+        <v>47.05090501738824</v>
       </c>
     </row>
     <row r="28">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6.862</v>
+        <v>6.759779338014043</v>
       </c>
       <c r="D28" t="n">
-        <v>120.7769591519591</v>
+        <v>129.7637577790537</v>
       </c>
       <c r="E28" t="n">
-        <v>43.80757575757574</v>
+        <v>46.37642252988287</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6.775100401606426</v>
+        <v>6.697697697697698</v>
       </c>
       <c r="D29" t="n">
-        <v>127.2487162547403</v>
+        <v>130.0665821499151</v>
       </c>
       <c r="E29" t="n">
-        <v>49.07737844484832</v>
+        <v>47.20679998457779</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7.692771084337349</v>
+        <v>7.671</v>
       </c>
       <c r="D30" t="n">
-        <v>134.2217585351886</v>
+        <v>125.5630416631534</v>
       </c>
       <c r="E30" t="n">
-        <v>53.62366047607011</v>
+        <v>45.31789404116767</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10.864</v>
+        <v>10.539</v>
       </c>
       <c r="D31" t="n">
-        <v>120.4266513070692</v>
+        <v>129.0894805121776</v>
       </c>
       <c r="E31" t="n">
-        <v>40.5822160209931</v>
+        <v>46.33894275229402</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7.298597194388778</v>
+        <v>7.597798899449725</v>
       </c>
       <c r="D32" t="n">
-        <v>131.1767390925707</v>
+        <v>121.1424999421939</v>
       </c>
       <c r="E32" t="n">
-        <v>49.22079423582429</v>
+        <v>44.47353130444675</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10.528</v>
+        <v>10.5905</v>
       </c>
       <c r="D33" t="n">
-        <v>118.3372833307043</v>
+        <v>123.7935963889909</v>
       </c>
       <c r="E33" t="n">
-        <v>43.78862811595006</v>
+        <v>43.88087988293086</v>
       </c>
     </row>
     <row r="34">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9.157999999999999</v>
+        <v>8.958500000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>140.9982364814408</v>
+        <v>136.992474402962</v>
       </c>
       <c r="E34" t="n">
-        <v>43.39735325733776</v>
+        <v>49.40771039461047</v>
       </c>
     </row>
     <row r="35">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10.992</v>
+        <v>11.144</v>
       </c>
       <c r="D35" t="n">
-        <v>137.3808254947068</v>
+        <v>134.203578938915</v>
       </c>
       <c r="E35" t="n">
-        <v>50.24168736843387</v>
+        <v>45.8294862001864</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6.724</v>
+        <v>6.807807807807808</v>
       </c>
       <c r="D36" t="n">
-        <v>127.1591722003486</v>
+        <v>127.4526066192731</v>
       </c>
       <c r="E36" t="n">
-        <v>44.20419580419581</v>
+        <v>46.3630491408269</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>11.226</v>
+        <v>11.247</v>
       </c>
       <c r="D37" t="n">
-        <v>123.3846199723908</v>
+        <v>125.6909665911778</v>
       </c>
       <c r="E37" t="n">
-        <v>41.05043113920822</v>
+        <v>44.63928976995832</v>
       </c>
     </row>
     <row r="38">
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7.418</v>
+        <v>7.469203805708563</v>
       </c>
       <c r="D38" t="n">
-        <v>133.4281246531245</v>
+        <v>125.9529964326127</v>
       </c>
       <c r="E38" t="n">
-        <v>50.28308913308913</v>
+        <v>44.58052510719742</v>
       </c>
     </row>
     <row r="39">
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7.648</v>
+        <v>7.684842421210606</v>
       </c>
       <c r="D39" t="n">
-        <v>130.5831720567014</v>
+        <v>135.4405686777752</v>
       </c>
       <c r="E39" t="n">
-        <v>45.93441558441559</v>
+        <v>47.74612928064648</v>
       </c>
     </row>
     <row r="40">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>7.262</v>
+        <v>7.1585</v>
       </c>
       <c r="D40" t="n">
-        <v>108.4538830450595</v>
+        <v>125.2868827659267</v>
       </c>
       <c r="E40" t="n">
-        <v>40.78962508080154</v>
+        <v>44.74650925055333</v>
       </c>
     </row>
     <row r="41">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>10.414</v>
+        <v>10.5495</v>
       </c>
       <c r="D41" t="n">
-        <v>127.5405407372125</v>
+        <v>135.2021059170708</v>
       </c>
       <c r="E41" t="n">
-        <v>43.52427902335023</v>
+        <v>46.6339904054493</v>
       </c>
     </row>
     <row r="42">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>9.968</v>
+        <v>10.2165</v>
       </c>
       <c r="D42" t="n">
-        <v>127.1209638400814</v>
+        <v>133.4756179686324</v>
       </c>
       <c r="E42" t="n">
-        <v>43.22039871892812</v>
+        <v>47.17945826318493</v>
       </c>
     </row>
     <row r="43">
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>12.38</v>
+        <v>12.3225</v>
       </c>
       <c r="D43" t="n">
-        <v>131.3521704989197</v>
+        <v>133.0917353976656</v>
       </c>
       <c r="E43" t="n">
-        <v>49.3993979274939</v>
+        <v>47.23218640944601</v>
       </c>
     </row>
     <row r="44">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>10.742</v>
+        <v>10.7465</v>
       </c>
       <c r="D44" t="n">
-        <v>124.2693785884625</v>
+        <v>128.4936930199925</v>
       </c>
       <c r="E44" t="n">
-        <v>45.28715938605897</v>
+        <v>44.15240646791313</v>
       </c>
     </row>
     <row r="45">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10.126</v>
+        <v>10.3035</v>
       </c>
       <c r="D45" t="n">
-        <v>140.5777703720427</v>
+        <v>133.6568208035773</v>
       </c>
       <c r="E45" t="n">
-        <v>54.0330461592071</v>
+        <v>49.17174129115664</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6.748995983935743</v>
+        <v>6.765147721582373</v>
       </c>
       <c r="D46" t="n">
-        <v>139.9462457444384</v>
+        <v>129.4453592087541</v>
       </c>
       <c r="E46" t="n">
-        <v>51.91499152342525</v>
+        <v>45.46105844303143</v>
       </c>
     </row>
     <row r="47">
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>11.174</v>
+        <v>11.2545</v>
       </c>
       <c r="D47" t="n">
-        <v>139.8047216972914</v>
+        <v>134.1371016818577</v>
       </c>
       <c r="E47" t="n">
-        <v>52.12835379275006</v>
+        <v>48.81096139842256</v>
       </c>
     </row>
     <row r="48">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10.096</v>
+        <v>10.0925</v>
       </c>
       <c r="D48" t="n">
-        <v>122.6394268184516</v>
+        <v>131.150090406669</v>
       </c>
       <c r="E48" t="n">
-        <v>45.54962732485951</v>
+        <v>47.78897990124759</v>
       </c>
     </row>
     <row r="49">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>7.956</v>
+        <v>7.802901450725363</v>
       </c>
       <c r="D49" t="n">
-        <v>133.6335914085913</v>
+        <v>137.5315051373668</v>
       </c>
       <c r="E49" t="n">
-        <v>49.72779165279162</v>
+        <v>49.25506923344075</v>
       </c>
     </row>
     <row r="50">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>8.246</v>
+        <v>8.253626813406703</v>
       </c>
       <c r="D50" t="n">
-        <v>108.5197160682454</v>
+        <v>125.7443934790347</v>
       </c>
       <c r="E50" t="n">
-        <v>40.87571676689323</v>
+        <v>43.18102932791464</v>
       </c>
     </row>
     <row r="51">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8.098000000000001</v>
+        <v>8.346173086543272</v>
       </c>
       <c r="D51" t="n">
-        <v>133.9827105900634</v>
+        <v>137.097995939917</v>
       </c>
       <c r="E51" t="n">
-        <v>50.643315018315</v>
+        <v>50.38487258457533</v>
       </c>
     </row>
     <row r="52">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7.713426853707415</v>
+        <v>7.905405405405405</v>
       </c>
       <c r="D52" t="n">
-        <v>131.8502139143421</v>
+        <v>134.6226507653758</v>
       </c>
       <c r="E52" t="n">
-        <v>46.6078677501523</v>
+        <v>45.95987709088018</v>
       </c>
     </row>
     <row r="53">
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8.292585170340681</v>
+        <v>8.22072072072072</v>
       </c>
       <c r="D53" t="n">
-        <v>132.3268097640371</v>
+        <v>134.8354992554338</v>
       </c>
       <c r="E53" t="n">
-        <v>50.98585171230456</v>
+        <v>48.86970364911537</v>
       </c>
     </row>
     <row r="54">
@@ -1453,13 +1453,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>10.914</v>
+        <v>10.5675</v>
       </c>
       <c r="D54" t="n">
-        <v>137.8922972710125</v>
+        <v>133.1082592747136</v>
       </c>
       <c r="E54" t="n">
-        <v>48.39506950737599</v>
+        <v>49.45124656712456</v>
       </c>
     </row>
     <row r="55">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6.243460764587526</v>
+        <v>6.157657657657658</v>
       </c>
       <c r="D55" t="n">
-        <v>162.1374936264272</v>
+        <v>150.8646703091147</v>
       </c>
       <c r="E55" t="n">
-        <v>55.67749933947117</v>
+        <v>55.34579840135399</v>
       </c>
     </row>
     <row r="56">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6.543259557344064</v>
+        <v>6.415831663326653</v>
       </c>
       <c r="D56" t="n">
-        <v>125.9696875894059</v>
+        <v>133.5455871063852</v>
       </c>
       <c r="E56" t="n">
-        <v>50.77245580263688</v>
+        <v>46.94304039870173</v>
       </c>
     </row>
     <row r="57">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>10.206</v>
+        <v>10.008</v>
       </c>
       <c r="D57" t="n">
-        <v>129.4710356636828</v>
+        <v>124.2008851978697</v>
       </c>
       <c r="E57" t="n">
-        <v>47.30161962220783</v>
+        <v>44.5135554231293</v>
       </c>
     </row>
     <row r="58">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7.026</v>
+        <v>7.079539769884942</v>
       </c>
       <c r="D58" t="n">
-        <v>131.4451714951715</v>
+        <v>136.4115637311058</v>
       </c>
       <c r="E58" t="n">
-        <v>43.65906315906314</v>
+        <v>50.43575982979507</v>
       </c>
     </row>
     <row r="59">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6.317907444668008</v>
+        <v>6.380331159056698</v>
       </c>
       <c r="D59" t="n">
-        <v>139.5402468088585</v>
+        <v>130.3662482914866</v>
       </c>
       <c r="E59" t="n">
-        <v>51.78575895376697</v>
+        <v>47.33163781081494</v>
       </c>
     </row>
     <row r="60">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>7.416</v>
+        <v>7.569784892446223</v>
       </c>
       <c r="D60" t="n">
-        <v>125.4158397158396</v>
+        <v>132.8176755449215</v>
       </c>
       <c r="E60" t="n">
-        <v>43.317094017094</v>
+        <v>46.22654011282145</v>
       </c>
     </row>
     <row r="61">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>13.788</v>
+        <v>13.8475</v>
       </c>
       <c r="D61" t="n">
-        <v>127.0132760308894</v>
+        <v>132.7396709841248</v>
       </c>
       <c r="E61" t="n">
-        <v>46.02756684581624</v>
+        <v>48.64331072328617</v>
       </c>
     </row>
     <row r="62">
@@ -1605,13 +1605,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>15.688</v>
+        <v>16.0585</v>
       </c>
       <c r="D62" t="n">
-        <v>132.4847349278052</v>
+        <v>129.2559036331261</v>
       </c>
       <c r="E62" t="n">
-        <v>49.50178998887566</v>
+        <v>46.43920792231823</v>
       </c>
     </row>
     <row r="63">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>11.442</v>
+        <v>11.702</v>
       </c>
       <c r="D63" t="n">
-        <v>137.0146739397512</v>
+        <v>130.7587607563945</v>
       </c>
       <c r="E63" t="n">
-        <v>50.3352625616557</v>
+        <v>47.57327719925552</v>
       </c>
     </row>
     <row r="64">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>9.470000000000001</v>
+        <v>9.465</v>
       </c>
       <c r="D64" t="n">
-        <v>115.7844812192638</v>
+        <v>123.835787075841</v>
       </c>
       <c r="E64" t="n">
-        <v>43.30655178155178</v>
+        <v>45.3550759590426</v>
       </c>
     </row>
     <row r="65">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>12.842</v>
+        <v>12.925</v>
       </c>
       <c r="D65" t="n">
-        <v>127.1354239435501</v>
+        <v>122.7628261505135</v>
       </c>
       <c r="E65" t="n">
-        <v>43.55436505359103</v>
+        <v>41.76312645492158</v>
       </c>
     </row>
     <row r="66">
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>12.646</v>
+        <v>12.663</v>
       </c>
       <c r="D66" t="n">
-        <v>131.2375979742079</v>
+        <v>131.912378347524</v>
       </c>
       <c r="E66" t="n">
-        <v>48.57542192642807</v>
+        <v>47.87475543034677</v>
       </c>
     </row>
     <row r="67">
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>12.326</v>
+        <v>12.634</v>
       </c>
       <c r="D67" t="n">
-        <v>125.5778414538006</v>
+        <v>125.8319498726395</v>
       </c>
       <c r="E67" t="n">
-        <v>47.3253677664971</v>
+        <v>43.93007711954584</v>
       </c>
     </row>
     <row r="68">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>96.28</v>
+        <v>96.6425</v>
       </c>
       <c r="D68" t="n">
-        <v>126.353146035044</v>
+        <v>123.9628969724365</v>
       </c>
       <c r="E68" t="n">
-        <v>46.60196329434866</v>
+        <v>44.79342469393871</v>
       </c>
     </row>
     <row r="69">
@@ -1738,13 +1738,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>12.758</v>
+        <v>12.4325</v>
       </c>
       <c r="D69" t="n">
-        <v>124.8537063383812</v>
+        <v>127.8813564278245</v>
       </c>
       <c r="E69" t="n">
-        <v>48.5987743508641</v>
+        <v>44.25166393123377</v>
       </c>
     </row>
     <row r="70">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>13.676</v>
+        <v>13.6775</v>
       </c>
       <c r="D70" t="n">
-        <v>138.0969494051214</v>
+        <v>132.5509416421136</v>
       </c>
       <c r="E70" t="n">
-        <v>51.75594518701261</v>
+        <v>48.1604022683965</v>
       </c>
     </row>
     <row r="71">
@@ -1776,13 +1776,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>12.99</v>
+        <v>13.0435</v>
       </c>
       <c r="D71" t="n">
-        <v>129.1728916650272</v>
+        <v>126.2399504119754</v>
       </c>
       <c r="E71" t="n">
-        <v>46.84625930485064</v>
+        <v>46.14831206800523</v>
       </c>
     </row>
     <row r="72">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>14.996</v>
+        <v>15.239</v>
       </c>
       <c r="D72" t="n">
-        <v>128.6603844510286</v>
+        <v>137.1275845653612</v>
       </c>
       <c r="E72" t="n">
-        <v>45.62615360440102</v>
+        <v>47.15355360935433</v>
       </c>
     </row>
     <row r="73">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>11.388</v>
+        <v>11.33</v>
       </c>
       <c r="D73" t="n">
-        <v>116.7505748887596</v>
+        <v>127.9382306396658</v>
       </c>
       <c r="E73" t="n">
-        <v>41.47561550936162</v>
+        <v>44.07087574158752</v>
       </c>
     </row>
     <row r="74">
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>12.126</v>
+        <v>12.162</v>
       </c>
       <c r="D74" t="n">
-        <v>119.2369697296168</v>
+        <v>121.9990928580736</v>
       </c>
       <c r="E74" t="n">
-        <v>42.50212301458429</v>
+        <v>42.45906417200074</v>
       </c>
     </row>
     <row r="75">
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>10.948</v>
+        <v>10.88</v>
       </c>
       <c r="D75" t="n">
-        <v>123.0824733144391</v>
+        <v>118.6042068191524</v>
       </c>
       <c r="E75" t="n">
-        <v>45.47145260140613</v>
+        <v>42.062008290557</v>
       </c>
     </row>
     <row r="76">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>30.078</v>
+        <v>29.6405</v>
       </c>
       <c r="D76" t="n">
-        <v>134.6475445957451</v>
+        <v>127.3157404288176</v>
       </c>
       <c r="E76" t="n">
-        <v>45.60972542249944</v>
+        <v>45.75376878481172</v>
       </c>
     </row>
     <row r="77">
@@ -1890,13 +1890,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>10.65</v>
+        <v>10.823</v>
       </c>
       <c r="D77" t="n">
-        <v>114.1894993894994</v>
+        <v>109.9077855358696</v>
       </c>
       <c r="E77" t="n">
-        <v>42.03867651955885</v>
+        <v>39.66562788346839</v>
       </c>
     </row>
     <row r="78">
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>14.988</v>
+        <v>14.922</v>
       </c>
       <c r="D78" t="n">
-        <v>123.2644876454366</v>
+        <v>131.2357406744879</v>
       </c>
       <c r="E78" t="n">
-        <v>44.12966021997921</v>
+        <v>45.6073814011477</v>
       </c>
     </row>
     <row r="79">
@@ -1928,13 +1928,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>12.71</v>
+        <v>12.556</v>
       </c>
       <c r="D79" t="n">
-        <v>125.5507643543248</v>
+        <v>132.2856442042873</v>
       </c>
       <c r="E79" t="n">
-        <v>46.22464796984922</v>
+        <v>48.12828800544277</v>
       </c>
     </row>
     <row r="80">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>11.034</v>
+        <v>11.129</v>
       </c>
       <c r="D80" t="n">
-        <v>129.8469861322029</v>
+        <v>122.9724409255173</v>
       </c>
       <c r="E80" t="n">
-        <v>45.24567792888226</v>
+        <v>43.3454507867433</v>
       </c>
     </row>
     <row r="81">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>12.814</v>
+        <v>12.856</v>
       </c>
       <c r="D81" t="n">
-        <v>128.182109106251</v>
+        <v>117.0932808553623</v>
       </c>
       <c r="E81" t="n">
-        <v>45.12782985250342</v>
+        <v>42.24986466603313</v>
       </c>
     </row>
     <row r="82">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>13.77</v>
+        <v>13.9735</v>
       </c>
       <c r="D82" t="n">
-        <v>127.3477849263702</v>
+        <v>123.9467551563656</v>
       </c>
       <c r="E82" t="n">
-        <v>43.8589021866394</v>
+        <v>43.80805470678136</v>
       </c>
     </row>
     <row r="83">
@@ -2004,13 +2004,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>21.826</v>
+        <v>21.556</v>
       </c>
       <c r="D83" t="n">
-        <v>131.9985314737817</v>
+        <v>131.1228722509676</v>
       </c>
       <c r="E83" t="n">
-        <v>49.7358105896468</v>
+        <v>48.078494972718</v>
       </c>
     </row>
     <row r="84">
@@ -2023,13 +2023,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>14.086</v>
+        <v>13.7215</v>
       </c>
       <c r="D84" t="n">
-        <v>121.571973127007</v>
+        <v>124.2962573272113</v>
       </c>
       <c r="E84" t="n">
-        <v>41.78319144100543</v>
+        <v>45.74007415050953</v>
       </c>
     </row>
     <row r="85">
@@ -2042,13 +2042,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>16.754</v>
+        <v>16.439</v>
       </c>
       <c r="D85" t="n">
-        <v>121.4008212098446</v>
+        <v>126.5926446293615</v>
       </c>
       <c r="E85" t="n">
-        <v>42.95880176020165</v>
+        <v>46.46621790329809</v>
       </c>
     </row>
     <row r="86">
@@ -2061,13 +2061,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>18.844</v>
+        <v>18.593</v>
       </c>
       <c r="D86" t="n">
-        <v>126.1473277911396</v>
+        <v>127.4118374617866</v>
       </c>
       <c r="E86" t="n">
-        <v>43.50005699485074</v>
+        <v>44.79787990262832</v>
       </c>
     </row>
     <row r="87">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>23.514</v>
+        <v>23.5535</v>
       </c>
       <c r="D87" t="n">
-        <v>129.1638392882847</v>
+        <v>127.3688424101816</v>
       </c>
       <c r="E87" t="n">
-        <v>47.50064267936938</v>
+        <v>45.67653878946019</v>
       </c>
     </row>
     <row r="88">
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>15.412</v>
+        <v>15.127</v>
       </c>
       <c r="D88" t="n">
-        <v>138.932570213248</v>
+        <v>143.1315529319268</v>
       </c>
       <c r="E88" t="n">
-        <v>52.56691761342857</v>
+        <v>49.56320303260292</v>
       </c>
     </row>
     <row r="89">
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>13.248</v>
+        <v>13.223</v>
       </c>
       <c r="D89" t="n">
-        <v>142.1195271756108</v>
+        <v>122.8020448377119</v>
       </c>
       <c r="E89" t="n">
-        <v>51.88445319730148</v>
+        <v>45.08734292956351</v>
       </c>
     </row>
     <row r="90">
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>22.806</v>
+        <v>23.1095</v>
       </c>
       <c r="D90" t="n">
-        <v>133.0958044432633</v>
+        <v>132.11580099476</v>
       </c>
       <c r="E90" t="n">
-        <v>47.50139993084959</v>
+        <v>47.65740489015665</v>
       </c>
     </row>
     <row r="91">
@@ -2156,13 +2156,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>14.948</v>
+        <v>15.4145</v>
       </c>
       <c r="D91" t="n">
-        <v>129.3993737817199</v>
+        <v>129.3472795632962</v>
       </c>
       <c r="E91" t="n">
-        <v>45.68903870392629</v>
+        <v>46.67400630080394</v>
       </c>
     </row>
     <row r="92">
@@ -2175,13 +2175,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>11.922</v>
+        <v>11.8495</v>
       </c>
       <c r="D92" t="n">
-        <v>128.6672249319308</v>
+        <v>124.3225136168438</v>
       </c>
       <c r="E92" t="n">
-        <v>43.44267258369424</v>
+        <v>45.12691677517525</v>
       </c>
     </row>
     <row r="93">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>15.912</v>
+        <v>16.0225</v>
       </c>
       <c r="D93" t="n">
-        <v>121.6824987994661</v>
+        <v>122.8511890151534</v>
       </c>
       <c r="E93" t="n">
-        <v>44.62125584567835</v>
+        <v>45.36742072140715</v>
       </c>
     </row>
     <row r="94">
@@ -2213,13 +2213,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>15.23</v>
+        <v>15.0125</v>
       </c>
       <c r="D94" t="n">
-        <v>124.2117327493852</v>
+        <v>128.7096598004667</v>
       </c>
       <c r="E94" t="n">
-        <v>45.28132836988468</v>
+        <v>44.63070213156439</v>
       </c>
     </row>
     <row r="95">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>18.57</v>
+        <v>18.8505</v>
       </c>
       <c r="D95" t="n">
-        <v>129.2882402005197</v>
+        <v>117.914614215724</v>
       </c>
       <c r="E95" t="n">
-        <v>45.40926816845381</v>
+        <v>43.10268925212877</v>
       </c>
     </row>
     <row r="96">
@@ -2251,13 +2251,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>15.842</v>
+        <v>16.001</v>
       </c>
       <c r="D96" t="n">
-        <v>125.1589165087019</v>
+        <v>124.4932844873835</v>
       </c>
       <c r="E96" t="n">
-        <v>45.05876788300461</v>
+        <v>43.85023468123928</v>
       </c>
     </row>
     <row r="97">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>14.41</v>
+        <v>14.4855</v>
       </c>
       <c r="D97" t="n">
-        <v>125.2776988419666</v>
+        <v>129.018128322878</v>
       </c>
       <c r="E97" t="n">
-        <v>47.57060882574745</v>
+        <v>44.78325122375043</v>
       </c>
     </row>
     <row r="98">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>13.776</v>
+        <v>13.9375</v>
       </c>
       <c r="D98" t="n">
-        <v>126.9524003256033</v>
+        <v>133.9864099121776</v>
       </c>
       <c r="E98" t="n">
-        <v>43.7558025421331</v>
+        <v>47.30239030310806</v>
       </c>
     </row>
     <row r="99">
@@ -2308,13 +2308,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>22.916</v>
+        <v>23.1415</v>
       </c>
       <c r="D99" t="n">
-        <v>126.517274233437</v>
+        <v>124.2553884304961</v>
       </c>
       <c r="E99" t="n">
-        <v>44.94870102828788</v>
+        <v>45.62500946415864</v>
       </c>
     </row>
     <row r="100">
@@ -2327,13 +2327,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>20.228</v>
+        <v>19.918</v>
       </c>
       <c r="D100" t="n">
-        <v>124.7040737793082</v>
+        <v>132.1687024908346</v>
       </c>
       <c r="E100" t="n">
-        <v>46.82399447219893</v>
+        <v>46.98790434951126</v>
       </c>
     </row>
     <row r="101">
@@ -2346,13 +2346,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>14.49</v>
+        <v>14.528</v>
       </c>
       <c r="D101" t="n">
-        <v>125.6293077463659</v>
+        <v>125.6944163178055</v>
       </c>
       <c r="E101" t="n">
-        <v>44.62698018527739</v>
+        <v>44.58826128361169</v>
       </c>
     </row>
     <row r="102">
@@ -2365,13 +2365,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>31.242</v>
+        <v>31.863</v>
       </c>
       <c r="D102" t="n">
-        <v>127.6348369128278</v>
+        <v>126.4483308244888</v>
       </c>
       <c r="E102" t="n">
-        <v>44.62240767369708</v>
+        <v>45.07925580018832</v>
       </c>
     </row>
     <row r="103">
@@ -2384,13 +2384,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>17.398</v>
+        <v>17.404</v>
       </c>
       <c r="D103" t="n">
-        <v>126.9850758575634</v>
+        <v>121.5063326205464</v>
       </c>
       <c r="E103" t="n">
-        <v>44.39750489261058</v>
+        <v>43.38845889509408</v>
       </c>
     </row>
     <row r="104">
@@ -2403,13 +2403,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>32.228</v>
+        <v>31.906</v>
       </c>
       <c r="D104" t="n">
-        <v>125.7421258221399</v>
+        <v>125.6704159198678</v>
       </c>
       <c r="E104" t="n">
-        <v>43.45235340230543</v>
+        <v>45.06767912366553</v>
       </c>
     </row>
     <row r="105">
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>34.532</v>
+        <v>34.759</v>
       </c>
       <c r="D105" t="n">
-        <v>128.9216181434323</v>
+        <v>132.1787796493132</v>
       </c>
       <c r="E105" t="n">
-        <v>46.49112743858549</v>
+        <v>47.62898468714024</v>
       </c>
     </row>
     <row r="106">
@@ -2441,13 +2441,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>8.262</v>
+        <v>8.3345</v>
       </c>
       <c r="D106" t="n">
-        <v>127.5564574314574</v>
+        <v>127.124413658237</v>
       </c>
       <c r="E106" t="n">
-        <v>47.1441613941614</v>
+        <v>43.60766280288335</v>
       </c>
     </row>
     <row r="107">
@@ -2460,13 +2460,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>6.612</v>
+        <v>6.828328328328328</v>
       </c>
       <c r="D107" t="n">
-        <v>141.9932400932401</v>
+        <v>128.2866164810607</v>
       </c>
       <c r="E107" t="n">
-        <v>47.70896325896325</v>
+        <v>46.49209926987703</v>
       </c>
     </row>
     <row r="108">
@@ -2479,13 +2479,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>6.898</v>
+        <v>7.033516758379189</v>
       </c>
       <c r="D108" t="n">
-        <v>122.9631535131534</v>
+        <v>139.1897767081682</v>
       </c>
       <c r="E108" t="n">
-        <v>44.13359418359416</v>
+        <v>47.57113752236313</v>
       </c>
     </row>
     <row r="109">
@@ -2498,13 +2498,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>7.444</v>
+        <v>7.558058058058058</v>
       </c>
       <c r="D109" t="n">
-        <v>119.4359307359306</v>
+        <v>135.8934633852932</v>
       </c>
       <c r="E109" t="n">
-        <v>39.32045732045731</v>
+        <v>50.70500111349782</v>
       </c>
     </row>
     <row r="110">
@@ -2517,13 +2517,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>9.747999999999999</v>
+        <v>9.672000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>135.5520127189631</v>
+        <v>124.5648128531252</v>
       </c>
       <c r="E110" t="n">
-        <v>49.4286321865269</v>
+        <v>43.5616977363881</v>
       </c>
     </row>
     <row r="111">
@@ -2536,13 +2536,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>13.528</v>
+        <v>13.612</v>
       </c>
       <c r="D111" t="n">
-        <v>145.4343691568149</v>
+        <v>136.15252064865</v>
       </c>
       <c r="E111" t="n">
-        <v>52.92506562752693</v>
+        <v>48.89062341706112</v>
       </c>
     </row>
     <row r="112">
@@ -2555,13 +2555,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>16.308</v>
+        <v>16.3905</v>
       </c>
       <c r="D112" t="n">
-        <v>137.6567763721748</v>
+        <v>134.0414449448237</v>
       </c>
       <c r="E112" t="n">
-        <v>51.78516683062182</v>
+        <v>50.26971821765616</v>
       </c>
     </row>
     <row r="113">
@@ -2574,13 +2574,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>7.196</v>
+        <v>7.1075</v>
       </c>
       <c r="D113" t="n">
-        <v>118.4294213955978</v>
+        <v>130.3154921467421</v>
       </c>
       <c r="E113" t="n">
-        <v>38.00687923187922</v>
+        <v>44.26556776556775</v>
       </c>
     </row>
     <row r="114">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>39.47</v>
+        <v>39.048</v>
       </c>
       <c r="D114" t="n">
-        <v>131.4975193810396</v>
+        <v>129.7680826379193</v>
       </c>
       <c r="E114" t="n">
-        <v>45.63288455159145</v>
+        <v>45.37684605128582</v>
       </c>
     </row>
     <row r="115">
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>8.062124248496994</v>
+        <v>7.9895</v>
       </c>
       <c r="D115" t="n">
-        <v>125.252700428051</v>
+        <v>130.464237967914</v>
       </c>
       <c r="E115" t="n">
-        <v>43.01435037907983</v>
+        <v>45.51052093331501</v>
       </c>
     </row>
     <row r="116">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>7.612</v>
+        <v>8.024012006003002</v>
       </c>
       <c r="D116" t="n">
-        <v>143.2326506826507</v>
+        <v>134.2913156463312</v>
       </c>
       <c r="E116" t="n">
-        <v>49.52001609501608</v>
+        <v>49.4988919701276</v>
       </c>
     </row>
     <row r="117">
@@ -2650,13 +2650,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>9.256</v>
+        <v>9.228</v>
       </c>
       <c r="D117" t="n">
-        <v>121.9862462271131</v>
+        <v>128.4530771924152</v>
       </c>
       <c r="E117" t="n">
-        <v>49.45691693926985</v>
+        <v>46.4800605805443</v>
       </c>
     </row>
     <row r="118">
@@ -2669,13 +2669,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>7.468937875751503</v>
+        <v>7.500250375563345</v>
       </c>
       <c r="D118" t="n">
-        <v>126.7807823831635</v>
+        <v>130.5534692151379</v>
       </c>
       <c r="E118" t="n">
-        <v>46.06244705560984</v>
+        <v>48.20342193276596</v>
       </c>
     </row>
     <row r="119">
@@ -2688,13 +2688,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>9.956</v>
+        <v>9.82191095547774</v>
       </c>
       <c r="D119" t="n">
-        <v>138.1075477438311</v>
+        <v>146.2553431427187</v>
       </c>
       <c r="E119" t="n">
-        <v>51.93394134245523</v>
+        <v>51.60946953702835</v>
       </c>
     </row>
     <row r="120">
@@ -2707,13 +2707,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>8.369999999999999</v>
+        <v>8.471500000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>140.0695764160159</v>
+        <v>134.2767483226266</v>
       </c>
       <c r="E120" t="n">
-        <v>50.08619611382767</v>
+        <v>47.65003974783382</v>
       </c>
     </row>
     <row r="121">
@@ -2726,13 +2726,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>7.554</v>
+        <v>7.498249124562281</v>
       </c>
       <c r="D121" t="n">
-        <v>120.2393606393605</v>
+        <v>131.0373877153588</v>
       </c>
       <c r="E121" t="n">
-        <v>39.77690087690088</v>
+        <v>46.40896872012427</v>
       </c>
     </row>
     <row r="122">
@@ -2745,13 +2745,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>8.118</v>
+        <v>7.954977488744372</v>
       </c>
       <c r="D122" t="n">
-        <v>133.0486640810169</v>
+        <v>138.8689761938111</v>
       </c>
       <c r="E122" t="n">
-        <v>51.34707237207235</v>
+        <v>45.68805720594843</v>
       </c>
     </row>
     <row r="123">
@@ -2764,13 +2764,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>13.758</v>
+        <v>13.7925</v>
       </c>
       <c r="D123" t="n">
-        <v>130.6780075072172</v>
+        <v>129.2360465729722</v>
       </c>
       <c r="E123" t="n">
-        <v>47.03769348986067</v>
+        <v>44.70194428998074</v>
       </c>
     </row>
   </sheetData>
